--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Seccionamiento Línea 2x220 kV Ancoa ? Itahue en S/E Santa Isabel</t>
+          <t>Embalse Agrícola Lircay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Agrícola Lircay SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9000</v>
+        <v>1200</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>16/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154161346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155421850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Interconexión Internacional de Interés Privado Los Cóndores (CL) - Río Diamante (AR)</t>
+          <t>Seccionamiento Línea 2x220 kV Ancoa ? Itahue en S/E Santa Isabel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153141507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154161346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
+          <t>Interconexión Internacional de Interés Privado Los Cóndores (CL) - Río Diamante (AR)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>36000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153141507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extracción de Áridos, Rinconada Los Maitenes</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A.</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16/04/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151359731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
+          <t>Extracción de Áridos, Rinconada Los Maitenes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Forestal Arauco S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>16/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151359731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149086295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Solar San Clemente Flor Del Llano</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>VESPA SOLAR SpA</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6500</v>
+        <v>100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147481099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149086295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chequén</t>
+          <t>Parque Solar San Clemente Flor Del Llano</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MCV Solar 36 SpA</t>
+          <t>VESPA SOLAR SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147481099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Regularización Plantel Avícola Eduardo Reinero</t>
+          <t>Parque Fotovoltaico Chequén</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Avicola Eduardo Reinero Spa</t>
+          <t>MCV Solar 36 SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/02/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145633539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Cabimas</t>
+          <t>Regularización Plantel Avícola Eduardo Reinero</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fotovoltaica Arrayán SpA.</t>
+          <t>Avicola Eduardo Reinero Spa</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>15000</v>
+        <v>2800</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>18/02/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145000862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145633539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Plantel Avícola Eduardo Reinero</t>
+          <t>Proyecto Fotovoltaico Cabimas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Avicola Eduardo Reinero Spa</t>
+          <t>Fotovoltaica Arrayán SpA.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2800</v>
+        <v>15000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142664518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145000862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142345665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142664518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Actualización de Medidas de Flora y Fauna - CH Los Cóndores</t>
+          <t>Plantel Avícola Eduardo Reinero</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Avicola Eduardo Reinero Spa</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/11/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141836558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142345665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Minihidro El Médano</t>
+          <t>Actualización de Medidas de Flora y Fauna - CH Los Cóndores</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>22/11/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132549028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141836558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Plantel de Aves Sector Mariposas</t>
+          <t>Minihidro El Médano</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/12/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132014463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132549028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15/12/2016</t>
+          <t>21/12/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131956051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132014463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proyecto Central Hidroeléctrica Los Maquis</t>
+          <t>Ampliación Plantel de Aves Sector Mariposas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hydrochile S.A</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>91000</v>
+        <v>4500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>15/12/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130949538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131956051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Los Maquis</t>
+          <t>Proyecto Central Hidroeléctrica Los Maquis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130921625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130949538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Optimización Proyecto Central Hidroeléctrica Río Colorado</t>
+          <t>Central Hidroeléctrica Los Maquis</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Hydrochile S.A</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4750</v>
+        <v>91000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/10/2015</t>
+          <t>16/11/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130836108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130921625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>21/10/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130836108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Optimización Proyecto Central Hidroeléctrica Río Colorado</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>4750</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>92000</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18/02/2014</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,40 +1576,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA RÍO COLORADO</t>
+          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>49000</v>
+        <v>92000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/02/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión La Mina - Loma Alta y Subestaciones</t>
+          <t>CENTRAL HIDROELÉCTRICA RÍO COLORADO</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>12900</v>
+        <v>49000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128889248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta de Manejo y acopio de Guanos, Fuenzalida Moure y Compañía Ltda.</t>
+          <t>Línea de Alta Tensión La Mina - Loma Alta y Subestaciones</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Colbún Transmisión SA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>440</v>
+        <v>12900</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09/10/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128542962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128889248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para aplicar Riles al Suelo Mediante Micro Aspersores, en Viña Casas Patronales S.A.</t>
+          <t>Planta de Manejo y acopio de Guanos, Fuenzalida Moure y Compañía Ltda.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>440</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>30/05/2013</t>
+          <t>09/10/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128542962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Apoyo en 220 kV a S/E Maule</t>
+          <t>Sistema de Tratamiento para aplicar Riles al Suelo Mediante Micro Aspersores, en Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>26000</v>
+        <v>50</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/04/2013</t>
+          <t>30/05/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,30 +1816,30 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>Apoyo en 220 kV a S/E Maule</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>600</v>
+        <v>26000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>25/02/2013</t>
+          <t>22/04/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>25/02/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,40 +1912,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Río Colorado</t>
+          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>49000</v>
+        <v>600</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/01/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7767408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Optimización Proyecto Central Hidroeléctrica La Mina .</t>
+          <t>Central Hidroeléctrica Río Colorado</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>75000</v>
+        <v>49000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/12/2012</t>
+          <t>23/01/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7767408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE PROGRESIVO Y SELLADO DEL VERTEDERO SAN ROQUE, COMUNA DE SAN CLEMENTE"</t>
+          <t>Optimización Proyecto Central Hidroeléctrica La Mina .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>20/12/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7495302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Construcción de drenaje subsuperficial, Agrícola Santa Daniela Ltda, Fundo Los Maitenes</t>
+          <t>PLAN DE CIERRE PROGRESIVO Y SELLADO DEL VERTEDERO SAN ROQUE, COMUNA DE SAN CLEMENTE"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Santa Daniela Ltda</t>
+          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>25/10/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7451850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7495302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PISCICULTURA BAJO PERQUIN</t>
+          <t>Construcción de drenaje subsuperficial, Agrícola Santa Daniela Ltda, Fundo Los Maitenes</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Carlos Rodrigo Salgado Peñailillo</t>
+          <t>Sociedad Agrícola Santa Daniela Ltda</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>800</v>
+        <v>76</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19/10/2012</t>
+          <t>25/10/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7394217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7451850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>REGULARIZACION PISCICULTURA BRAMADERO</t>
+          <t>PISCICULTURA BAJO PERQUIN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>María Valeria Muñoz Ayala Agricultura y Acuicultura E.I.R.L</t>
+          <t>Carlos Rodrigo Salgado Peñailillo</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>28/09/2012</t>
+          <t>19/10/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7381320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7394217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA "LAS GARZAS"</t>
+          <t>REGULARIZACION PISCICULTURA BRAMADERO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Salmones Las Garzas Limitada</t>
+          <t>María Valeria Muñoz Ayala Agricultura y Acuicultura E.I.R.L</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>30/08/2012</t>
+          <t>28/09/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7145808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7381320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>REGULARIZACIÓN PISCICULTURA "LAS GARZAS"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Salmones Las Garzas Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>30/08/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7145808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
+          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura "El Colorado"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>M y M Servicios Mecanizados y Acuicultura Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>24/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>OPTIMIZACION DE OBRAS DE LA CENTRAL HIDROELECTRICA LOS CONDORES</t>
+          <t>Ampliación Piscicultura "El Colorado"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>M y M Servicios Mecanizados y Acuicultura Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>400000</v>
+        <v>500</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>17/03/2011</t>
+          <t>24/10/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>OLIVAS PICHINGAL SpA</t>
+          <t>OPTIMIZACION DE OBRAS DE LA CENTRAL HIDROELECTRICA LOS CONDORES</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OLIVAS PICHINGAL S.p.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>70</v>
+        <v>400000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>25/02/2011</t>
+          <t>17/03/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Providencia</t>
+          <t>OLIVAS PICHINGAL SpA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Providencia S.A.</t>
+          <t>OLIVAS PICHINGAL S.p.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>30000</v>
+        <v>70</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>25/02/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,26 +2584,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Central Hidroeléctrica Providencia</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Hidroeléctrica Providencia S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>130000</v>
+        <v>30000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,30 +2632,30 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Duao</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3000</v>
+        <v>130000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLANTA COMPOSTAJE AGUA MARINA Y CIA .</t>
+          <t>Minicentral Hidroeléctrica Duao</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AGUA MARINA Y CIA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>333</v>
+        <v>3000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>12/11/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LTE CH Los Cóndores - S/E Ancoa</t>
+          <t>PLANTA COMPOSTAJE AGUA MARINA Y CIA .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>AGUA MARINA Y CIA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>60000</v>
+        <v>333</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05/10/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,40 +2776,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>LTE CH Los Cóndores - S/E Ancoa</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>05/10/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente .</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Gonzalo Cordúa Hoffmann</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2080</v>
+        <v>2000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/05/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4574095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Central Hidroeléctrica Mariposas .</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Lircay S.A.</t>
+          <t>Gonzalo Cordúa Hoffmann</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>460</v>
+        <v>2080</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14/04/2010</t>
+          <t>11/05/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4574095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica La Mina</t>
+          <t>Modificación Central Hidroeléctrica Mariposas .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidroeléctrica Río Lircay S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>74000</v>
+        <v>460</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13/04/2010</t>
+          <t>14/04/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,40 +3016,40 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Central Hidroeléctrica La Mina</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>74000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>13/04/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>plan de adecuacion del vertedero de residuos solidos domiciliarios y asimilables san roque a relleno sanitario de residuos solidos domiciliarios y asimilables san roque . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4330315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>plan de adecuacion del vertedero de residuos solidos domiciliarios y asimilables san roque a relleno sanitario de residuos solidos domiciliarios y asimilables san roque . (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>20/01/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4330315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,10 +3352,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Centrales Hidroeléctricas Río Puelche</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -3363,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hydrochile S.A</t>
+          <t>Colbún Transmisión SA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>140000</v>
+        <v>990</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09/04/2009</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3657332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3396,14 +3400,10 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta 115-CH, Tramo Puente Lo Aguirre, Límite Paso Pehuenche (e-seia)</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centrales Hidroeléctricas Río Puelche</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -3411,25 +3411,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Hydrochile S.A</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>30000</v>
+        <v>140000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>09/04/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3657332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Mejoramiento Ruta 115-CH, Tramo Puente Lo Aguirre, Límite Paso Pehuenche (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3454,30 +3454,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Mariposas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3502,30 +3502,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Lircay S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>15300</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Eduardo" de San Clemente (e-seia)</t>
+          <t>Central Hidroeléctrica Mariposas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3555,15 +3555,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Danilo Alberto Parra Loyola</t>
+          <t>Hidroeléctrica Río Lircay S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3600</v>
+        <v>15300</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>13/01/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Eduardo" de San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3598,30 +3598,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Danilo Alberto Parra Loyola</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NUEVA AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3646,30 +3646,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>05/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>NUEVA AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3694,20 +3694,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>05/11/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3747,25 +3747,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral del Sitema APR El Colorado, Comuna de San Clemente (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3790,30 +3790,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Juan Raul Rojas Vergara</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>426</v>
+        <v>234</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento Integral del Sitema APR El Colorado, Comuna de San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3838,30 +3838,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Juan Raul Rojas Vergara</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/10/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Línea Transmisión Lircay- Maule 1 x 66 kV (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3886,30 +3886,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Hidromaule S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2650</v>
+        <v>10</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea Transmisión Lircay- Maule 1 x 66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3934,30 +3934,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Hidromaule S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>2650</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>17/08/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,40 +3972,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"Central Hidroeléctrica Los Cóndores"</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>180000</v>
+        <v>300</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,12 +4020,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica San Clemente (e-seia)</t>
+          <t>"Central Hidroeléctrica Los Cóndores"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4035,15 +4035,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>29/05/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Piscicultura El Colorado (e-seia)</t>
+          <t>Central Hidroeléctrica San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4083,15 +4083,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Salmones Colbún Ltda</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>12000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>02/05/2007</t>
+          <t>29/05/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Piscicultura El Colorado (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4126,30 +4126,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Salmones Colbún Ltda</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>02/05/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,17 +4187,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal San Clemente (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4222,16 +4222,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Juan Raul Rojas Vergara</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4240,12 +4240,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1898043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Plan Regulador Comunal San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4270,20 +4270,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Juan Raul Rojas Vergara</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1898043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Lircay (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4318,20 +4318,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Hidromaule S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
+          <t>Central Hidroelectrica Lircay (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4371,15 +4371,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidromaule S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>203</v>
+        <v>20000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>12/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de RILes Viña Casas Patronales S.A. (e-seia)</t>
+          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4419,15 +4419,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>12/07/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento de RILes Viña Casas Patronales S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4462,30 +4462,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Riles, Viña Casas Patronales S.A. (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4510,20 +4510,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Nelson Murua Polanco</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1470315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento de Riles, Viña Casas Patronales S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4558,30 +4558,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Nelson Murua Polanco</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4000</v>
+        <v>64</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1470315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de vinos de Viñedos Terranoble Riles Bodega Vinos Terranoble (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4606,30 +4606,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Viñedos Terranoble S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de vinos de Viñedos Terranoble Riles Bodega Vinos Terranoble (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4654,30 +4654,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Viñedos Terranoble S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>07/03/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4707,25 +4707,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4755,25 +4755,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4811,17 +4811,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO INTEGRAL APR SAN DIEGO-BELLA UNION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4846,30 +4846,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>COMITE DE APR SAN DIEGO, BELLA UNION Y SAN LUIS DE ALICO</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>486</v>
+        <v>72</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1149334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Loteo Don Sebastian (e-seia)</t>
+          <t>MEJORAMIENTO INTEGRAL APR SAN DIEGO-BELLA UNION (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,25 +4899,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
+          <t>COMITE DE APR SAN DIEGO, BELLA UNION Y SAN LUIS DE ALICO</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4083</v>
+        <v>486</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1119974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1149334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Ojos de Agua (e-seia)</t>
+          <t>Loteo Don Sebastian (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,25 +4947,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>4083</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31/08/2005</t>
+          <t>23/11/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1119974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Minicentral Hidroeléctrica Ojos de Agua (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,15 +4995,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>31/08/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,15 +5043,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=436459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Centro Shalom, Vilches Alto (e-seia)</t>
+          <t>AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,15 +5091,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Iglesia Pentecostal de Chile</t>
+          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>31/05/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=436459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Mariposas</t>
+          <t>Centro Shalom, Vilches Alto (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,25 +5139,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Iglesia Pentecostal de Chile</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>31/12/2002</t>
+          <t>31/05/2004</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Queri</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Mariposas</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Quebrada de Agua</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Queri</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE SAN CLEMENTE (e-seia)</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Quebrada de Agua</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,25 +5283,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>13/11/2002</t>
+          <t>31/12/2002</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Consumo Propio a Venta de Combustible de la empresa Socotrans S.A. San Clemente</t>
+          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE SAN CLEMENTE (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,15 +5331,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Socieedad Socotrans S.A.</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>21/10/2002</t>
+          <t>13/11/2002</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
+          <t>Modificación de Instalaciones Consumo Propio a Venta de Combustible de la empresa Socotrans S.A. San Clemente</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5379,15 +5379,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Socieedad Socotrans S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>14080</v>
+        <v>40</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>21/10/2002</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,12 +5412,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Piloto Reserva Nacional Altos de Lircay</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5427,15 +5427,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>30</v>
+        <v>14080</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>23/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,12 +5460,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
+          <t>Sendero de Chile Tramo Piloto Reserva Nacional Altos de Lircay</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5475,25 +5475,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>14080</v>
+        <v>30</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>23/08/2002</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,12 +5508,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5523,25 +5523,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1000</v>
+        <v>14080</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>24/06/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Villa Conavicoop - San Clemente</t>
+          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2260</v>
+        <v>1000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/06/2002</t>
+          <t>24/06/2002</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Estación de Servicios Huamachuco</t>
+          <t>Conjunto Habitacional Villa Conavicoop - San Clemente</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,15 +5619,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>100</v>
+        <v>2260</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>17/12/2001</t>
+          <t>07/06/2002</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Viña Casas Patronales 2</t>
+          <t>Estación de Servicios Huamachuco</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,15 +5667,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>12/12/2001</t>
+          <t>17/12/2001</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural Los Montes Comuna de San Clemente Provincia de Talca Región del Maule</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Viña Casas Patronales 2</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>08/03/2001</t>
+          <t>12/12/2001</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Fundo Los Lirios Comuna de San Clemente Provincia de Talca Región del Maule</t>
+          <t>Instalación de Servicio de Agua Potable Rural Los Montes Comuna de San Clemente Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sociedad Fruticola El Aromo Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>20/12/2000</t>
+          <t>08/03/2001</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Chequen</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Fundo Los Lirios Comuna de San Clemente Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,15 +5811,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Sociedad Fruticola El Aromo Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>10/04/2000</t>
+          <t>20/12/2000</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ampliación Sistema de Agua Potable Rural Mariposas</t>
+          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Chequen</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Mariposas</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>26/01/2000</t>
+          <t>10/04/2000</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral Servicio de Agua Potable de Vilches Alto</t>
+          <t>Ampliación Sistema de Agua Potable Rural Mariposas</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,15 +5907,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Comité de Agua Potable Rural Mariposas</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>23/11/1999</t>
+          <t>26/01/2000</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de San Manuel</t>
+          <t>Mejoramiento Integral Servicio de Agua Potable de Vilches Alto</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,15 +5955,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>22/11/1999</t>
+          <t>23/11/1999</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de Paso Nevado</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de San Manuel</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Diseño Planta de Tratamiento Villa Flor del Llano</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de Paso Nevado</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,15 +6051,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>21/10/1999</t>
+          <t>22/11/1999</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural Sector San Jorge Norte</t>
+          <t>Diseño Planta de Tratamiento Villa Flor del Llano</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16/09/1999</t>
+          <t>21/10/1999</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Sector Queri</t>
+          <t>Sistema de Servicio de Agua Potable Rural Sector San Jorge Norte</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>730</v>
+        <v>100</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>16/09/1999</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Construcción de Viviendas Sociales en San Clemente</t>
+          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Sector Queri</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,15 +6195,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Audilio Salas Bravo</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>560</v>
+        <v>730</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>26/04/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Alcantarillado Grupo Habitacional Flor del Llano</t>
+          <t>Construcción de Viviendas Sociales en San Clemente</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,25 +6243,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Audilio Salas Bravo</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>26/04/1999</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Loteo y Construcción de un Grupo Habitacional de 100 Viviendas Sociales</t>
+          <t>Mejoramiento del Sistema de Alcantarillado Grupo Habitacional Flor del Llano</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,25 +6291,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Constructora Cerutti S.A.</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>730</v>
+        <v>50</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>02/11/1998</t>
+          <t>11/11/1998</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas El Bolsico</t>
+          <t>Loteo y Construcción de un Grupo Habitacional de 100 Viviendas Sociales</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Constructora Cerutti S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>390</v>
+        <v>730</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/09/1998</t>
+          <t>02/11/1998</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Construcción Infraestructura Turística en Reserva Nacional Alto Lircay</t>
+          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas El Bolsico</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>05/06/1998</t>
+          <t>30/09/1998</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mejoramiento Servicios Reserva Nacional Altos de Lircay</t>
+          <t>Construcción Infraestructura Turística en Reserva Nacional Alto Lircay</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,11 +6439,11 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>14/07/1997</t>
+          <t>05/06/1998</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,30 +6468,30 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Mejoramiento Servicios Reserva Nacional Altos de Lircay</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>850000</v>
+        <v>70</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>14/07/1997</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,43 +6516,91 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>San Clemente</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Séptima</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F129" t="n">
+      <c r="F130" t="n">
         <v>60000</v>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>San Clemente</t>
         </is>

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/03/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embalse Agrícola Lircay</t>
+          <t>DIA Embalse Agrícola Lircay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>13/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155421850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155623819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Seccionamiento Línea 2x220 kV Ancoa ? Itahue en S/E Santa Isabel</t>
+          <t>Embalse Agrícola Lircay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Agrícola Lircay SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9000</v>
+        <v>1200</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154161346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155421850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Interconexión Internacional de Interés Privado Los Cóndores (CL) - Río Diamante (AR)</t>
+          <t>Seccionamiento Línea 2x220 kV Ancoa ? Itahue en S/E Santa Isabel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153141507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154161346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
+          <t>Interconexión Internacional de Interés Privado Los Cóndores (CL) - Río Diamante (AR)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>36000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153141507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Extracción de Áridos, Rinconada Los Maitenes</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A.</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16/04/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151359731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
+          <t>Extracción de Áridos, Rinconada Los Maitenes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Forestal Arauco S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>16/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151359731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149086295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Solar San Clemente Flor Del Llano</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>VESPA SOLAR SpA</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6500</v>
+        <v>100</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147481099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149086295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chequén</t>
+          <t>Parque Solar San Clemente Flor Del Llano</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MCV Solar 36 SpA</t>
+          <t>VESPA SOLAR SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147481099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Regularización Plantel Avícola Eduardo Reinero</t>
+          <t>Parque Fotovoltaico Chequén</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Avicola Eduardo Reinero Spa</t>
+          <t>MCV Solar 36 SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/02/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145633539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Cabimas</t>
+          <t>Regularización Plantel Avícola Eduardo Reinero</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fotovoltaica Arrayán SpA.</t>
+          <t>Avicola Eduardo Reinero Spa</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>15000</v>
+        <v>2800</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>18/02/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145000862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145633539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Plantel Avícola Eduardo Reinero</t>
+          <t>Proyecto Fotovoltaico Cabimas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Avicola Eduardo Reinero Spa</t>
+          <t>Fotovoltaica Arrayán SpA.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2800</v>
+        <v>15000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142664518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145000862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142345665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142664518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Actualización de Medidas de Flora y Fauna - CH Los Cóndores</t>
+          <t>Plantel Avícola Eduardo Reinero</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Avicola Eduardo Reinero Spa</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/11/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141836558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142345665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Minihidro El Médano</t>
+          <t>Actualización de Medidas de Flora y Fauna - CH Los Cóndores</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>22/11/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132549028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141836558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación Plantel de Aves Sector Mariposas</t>
+          <t>Minihidro El Médano</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/12/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132014463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132549028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15/12/2016</t>
+          <t>21/12/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131956051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132014463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Proyecto Central Hidroeléctrica Los Maquis</t>
+          <t>Ampliación Plantel de Aves Sector Mariposas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hydrochile S.A</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>91000</v>
+        <v>4500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>15/12/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130949538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131956051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Los Maquis</t>
+          <t>Proyecto Central Hidroeléctrica Los Maquis</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130921625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130949538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Optimización Proyecto Central Hidroeléctrica Río Colorado</t>
+          <t>Central Hidroeléctrica Los Maquis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Hydrochile S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4750</v>
+        <v>91000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/10/2015</t>
+          <t>16/11/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130836108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130921625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>21/10/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130836108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Optimización Proyecto Central Hidroeléctrica Río Colorado</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>4750</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>92000</v>
+        <v>10</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>18/02/2014</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,40 +1624,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA RÍO COLORADO</t>
+          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>49000</v>
+        <v>92000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/02/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión La Mina - Loma Alta y Subestaciones</t>
+          <t>CENTRAL HIDROELÉCTRICA RÍO COLORADO</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>12900</v>
+        <v>49000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128889248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta de Manejo y acopio de Guanos, Fuenzalida Moure y Compañía Ltda.</t>
+          <t>Línea de Alta Tensión La Mina - Loma Alta y Subestaciones</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Colbún Transmisión SA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>440</v>
+        <v>12900</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/10/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128542962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128889248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para aplicar Riles al Suelo Mediante Micro Aspersores, en Viña Casas Patronales S.A.</t>
+          <t>Planta de Manejo y acopio de Guanos, Fuenzalida Moure y Compañía Ltda.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>440</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/05/2013</t>
+          <t>09/10/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128542962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Apoyo en 220 kV a S/E Maule</t>
+          <t>Sistema de Tratamiento para aplicar Riles al Suelo Mediante Micro Aspersores, en Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>26000</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22/04/2013</t>
+          <t>30/05/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,30 +1864,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>Apoyo en 220 kV a S/E Maule</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>600</v>
+        <v>26000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>25/02/2013</t>
+          <t>22/04/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>25/02/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,40 +1960,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Río Colorado</t>
+          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>49000</v>
+        <v>600</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/01/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7767408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Optimización Proyecto Central Hidroeléctrica La Mina .</t>
+          <t>Central Hidroeléctrica Río Colorado</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>75000</v>
+        <v>49000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/12/2012</t>
+          <t>23/01/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7767408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE PROGRESIVO Y SELLADO DEL VERTEDERO SAN ROQUE, COMUNA DE SAN CLEMENTE"</t>
+          <t>Optimización Proyecto Central Hidroeléctrica La Mina .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>20/12/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7495302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Construcción de drenaje subsuperficial, Agrícola Santa Daniela Ltda, Fundo Los Maitenes</t>
+          <t>PLAN DE CIERRE PROGRESIVO Y SELLADO DEL VERTEDERO SAN ROQUE, COMUNA DE SAN CLEMENTE"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Santa Daniela Ltda</t>
+          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>25/10/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7451850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7495302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PISCICULTURA BAJO PERQUIN</t>
+          <t>Construcción de drenaje subsuperficial, Agrícola Santa Daniela Ltda, Fundo Los Maitenes</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Carlos Rodrigo Salgado Peñailillo</t>
+          <t>Sociedad Agrícola Santa Daniela Ltda</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>800</v>
+        <v>76</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19/10/2012</t>
+          <t>25/10/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7394217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7451850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>REGULARIZACION PISCICULTURA BRAMADERO</t>
+          <t>PISCICULTURA BAJO PERQUIN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>María Valeria Muñoz Ayala Agricultura y Acuicultura E.I.R.L</t>
+          <t>Carlos Rodrigo Salgado Peñailillo</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>28/09/2012</t>
+          <t>19/10/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7381320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7394217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA "LAS GARZAS"</t>
+          <t>REGULARIZACION PISCICULTURA BRAMADERO</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Salmones Las Garzas Limitada</t>
+          <t>María Valeria Muñoz Ayala Agricultura y Acuicultura E.I.R.L</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30/08/2012</t>
+          <t>28/09/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7145808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7381320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>REGULARIZACIÓN PISCICULTURA "LAS GARZAS"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Salmones Las Garzas Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>30/08/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7145808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
+          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura "El Colorado"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>M y M Servicios Mecanizados y Acuicultura Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>24/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>OPTIMIZACION DE OBRAS DE LA CENTRAL HIDROELECTRICA LOS CONDORES</t>
+          <t>Ampliación Piscicultura "El Colorado"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>M y M Servicios Mecanizados y Acuicultura Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>400000</v>
+        <v>500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/03/2011</t>
+          <t>24/10/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>OLIVAS PICHINGAL SpA</t>
+          <t>OPTIMIZACION DE OBRAS DE LA CENTRAL HIDROELECTRICA LOS CONDORES</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>OLIVAS PICHINGAL S.p.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>70</v>
+        <v>400000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>25/02/2011</t>
+          <t>17/03/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Providencia</t>
+          <t>OLIVAS PICHINGAL SpA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Providencia S.A.</t>
+          <t>OLIVAS PICHINGAL S.p.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>30000</v>
+        <v>70</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>25/02/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,26 +2632,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Central Hidroeléctrica Providencia</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Hidroeléctrica Providencia S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>130000</v>
+        <v>30000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,30 +2680,30 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Duao</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3000</v>
+        <v>130000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PLANTA COMPOSTAJE AGUA MARINA Y CIA .</t>
+          <t>Minicentral Hidroeléctrica Duao</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AGUA MARINA Y CIA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>333</v>
+        <v>3000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>12/11/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LTE CH Los Cóndores - S/E Ancoa</t>
+          <t>PLANTA COMPOSTAJE AGUA MARINA Y CIA .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>AGUA MARINA Y CIA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>60000</v>
+        <v>333</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>05/10/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,40 +2824,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>LTE CH Los Cóndores - S/E Ancoa</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>05/10/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente .</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Gonzalo Cordúa Hoffmann</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2080</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>11/05/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4574095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Modificación Central Hidroeléctrica Mariposas .</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Lircay S.A.</t>
+          <t>Gonzalo Cordúa Hoffmann</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>460</v>
+        <v>2080</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14/04/2010</t>
+          <t>11/05/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4574095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica La Mina</t>
+          <t>Modificación Central Hidroeléctrica Mariposas .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidroeléctrica Río Lircay S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>74000</v>
+        <v>460</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>13/04/2010</t>
+          <t>14/04/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,40 +3064,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Central Hidroeléctrica La Mina</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>74000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>13/04/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>plan de adecuacion del vertedero de residuos solidos domiciliarios y asimilables san roque a relleno sanitario de residuos solidos domiciliarios y asimilables san roque . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4330315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>plan de adecuacion del vertedero de residuos solidos domiciliarios y asimilables san roque a relleno sanitario de residuos solidos domiciliarios y asimilables san roque . (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>20/01/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4330315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,10 +3400,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centrales Hidroeléctricas Río Puelche</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -3411,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Hydrochile S.A</t>
+          <t>Colbún Transmisión SA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>140000</v>
+        <v>990</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09/04/2009</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3657332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3444,14 +3448,10 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta 115-CH, Tramo Puente Lo Aguirre, Límite Paso Pehuenche (e-seia)</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centrales Hidroeléctricas Río Puelche</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -3459,25 +3459,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Hydrochile S.A</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>30000</v>
+        <v>140000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>09/04/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3657332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Mejoramiento Ruta 115-CH, Tramo Puente Lo Aguirre, Límite Paso Pehuenche (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3502,30 +3502,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Mariposas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3550,30 +3550,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Lircay S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>15300</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>13/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Eduardo" de San Clemente (e-seia)</t>
+          <t>Central Hidroeléctrica Mariposas (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3603,15 +3603,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Danilo Alberto Parra Loyola</t>
+          <t>Hidroeléctrica Río Lircay S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3600</v>
+        <v>15300</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>13/01/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Eduardo" de San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3646,30 +3646,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Danilo Alberto Parra Loyola</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NUEVA AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3694,30 +3694,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>05/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>NUEVA AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3742,20 +3742,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>05/11/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3795,25 +3795,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral del Sitema APR El Colorado, Comuna de San Clemente (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3838,30 +3838,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Juan Raul Rojas Vergara</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>426</v>
+        <v>234</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>03/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento Integral del Sitema APR El Colorado, Comuna de San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3886,30 +3886,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Juan Raul Rojas Vergara</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/10/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Línea Transmisión Lircay- Maule 1 x 66 kV (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3934,30 +3934,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Hidromaule S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2650</v>
+        <v>10</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea Transmisión Lircay- Maule 1 x 66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3982,30 +3982,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Hidromaule S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>2650</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>17/08/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,40 +4020,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"Central Hidroeléctrica Los Cóndores"</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>180000</v>
+        <v>300</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,12 +4068,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica San Clemente (e-seia)</t>
+          <t>"Central Hidroeléctrica Los Cóndores"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4083,15 +4083,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>29/05/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4101,7 +4101,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Piscicultura El Colorado (e-seia)</t>
+          <t>Central Hidroeléctrica San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4131,15 +4131,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Salmones Colbún Ltda</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1500</v>
+        <v>12000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02/05/2007</t>
+          <t>29/05/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Piscicultura El Colorado (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4174,30 +4174,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Salmones Colbún Ltda</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>02/05/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,17 +4235,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal San Clemente (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4270,16 +4270,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Juan Raul Rojas Vergara</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4288,12 +4288,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1898043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Plan Regulador Comunal San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4318,20 +4318,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Juan Raul Rojas Vergara</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1898043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Lircay (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4366,20 +4366,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Hidromaule S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
+          <t>Central Hidroelectrica Lircay (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4419,15 +4419,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidromaule S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>203</v>
+        <v>20000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>12/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de RILes Viña Casas Patronales S.A. (e-seia)</t>
+          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4467,15 +4467,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>12/07/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento de RILes Viña Casas Patronales S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4510,30 +4510,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Riles, Viña Casas Patronales S.A. (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4558,20 +4558,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Nelson Murua Polanco</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1470315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento de Riles, Viña Casas Patronales S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4606,30 +4606,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Nelson Murua Polanco</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4000</v>
+        <v>64</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1470315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de vinos de Viñedos Terranoble Riles Bodega Vinos Terranoble (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4654,30 +4654,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Viñedos Terranoble S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de vinos de Viñedos Terranoble Riles Bodega Vinos Terranoble (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4702,30 +4702,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Viñedos Terranoble S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>07/03/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4755,25 +4755,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4803,25 +4803,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4859,17 +4859,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO INTEGRAL APR SAN DIEGO-BELLA UNION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4894,30 +4894,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>COMITE DE APR SAN DIEGO, BELLA UNION Y SAN LUIS DE ALICO</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>486</v>
+        <v>72</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1149334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Loteo Don Sebastian (e-seia)</t>
+          <t>MEJORAMIENTO INTEGRAL APR SAN DIEGO-BELLA UNION (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,25 +4947,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
+          <t>COMITE DE APR SAN DIEGO, BELLA UNION Y SAN LUIS DE ALICO</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4083</v>
+        <v>486</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1119974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1149334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Ojos de Agua (e-seia)</t>
+          <t>Loteo Don Sebastian (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,25 +4995,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>4083</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/08/2005</t>
+          <t>23/11/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1119974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Minicentral Hidroeléctrica Ojos de Agua (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,15 +5043,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>31/08/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,15 +5091,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=436459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Centro Shalom, Vilches Alto (e-seia)</t>
+          <t>AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,15 +5139,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Iglesia Pentecostal de Chile</t>
+          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>31/05/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=436459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Mariposas</t>
+          <t>Centro Shalom, Vilches Alto (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,25 +5187,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Iglesia Pentecostal de Chile</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>31/12/2002</t>
+          <t>31/05/2004</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Queri</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Mariposas</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,7 +5239,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Quebrada de Agua</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Queri</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE SAN CLEMENTE (e-seia)</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Quebrada de Agua</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,25 +5331,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>13/11/2002</t>
+          <t>31/12/2002</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Consumo Propio a Venta de Combustible de la empresa Socotrans S.A. San Clemente</t>
+          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE SAN CLEMENTE (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,15 +5379,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Socieedad Socotrans S.A.</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>21/10/2002</t>
+          <t>13/11/2002</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,12 +5412,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
+          <t>Modificación de Instalaciones Consumo Propio a Venta de Combustible de la empresa Socotrans S.A. San Clemente</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5427,15 +5427,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Socieedad Socotrans S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>14080</v>
+        <v>40</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>21/10/2002</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,12 +5460,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Piloto Reserva Nacional Altos de Lircay</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5475,15 +5475,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>30</v>
+        <v>14080</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>23/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,12 +5508,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
+          <t>Sendero de Chile Tramo Piloto Reserva Nacional Altos de Lircay</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5523,25 +5523,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>14080</v>
+        <v>30</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>23/08/2002</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,12 +5556,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5571,25 +5571,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>14080</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>24/06/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Villa Conavicoop - San Clemente</t>
+          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,15 +5619,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>2260</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07/06/2002</t>
+          <t>24/06/2002</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Estación de Servicios Huamachuco</t>
+          <t>Conjunto Habitacional Villa Conavicoop - San Clemente</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,15 +5667,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>100</v>
+        <v>2260</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>17/12/2001</t>
+          <t>07/06/2002</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Viña Casas Patronales 2</t>
+          <t>Estación de Servicios Huamachuco</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12/12/2001</t>
+          <t>17/12/2001</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural Los Montes Comuna de San Clemente Provincia de Talca Región del Maule</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Viña Casas Patronales 2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>08/03/2001</t>
+          <t>12/12/2001</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Fundo Los Lirios Comuna de San Clemente Provincia de Talca Región del Maule</t>
+          <t>Instalación de Servicio de Agua Potable Rural Los Montes Comuna de San Clemente Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sociedad Fruticola El Aromo Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>20/12/2000</t>
+          <t>08/03/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Chequen</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Fundo Los Lirios Comuna de San Clemente Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Sociedad Fruticola El Aromo Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10/04/2000</t>
+          <t>20/12/2000</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ampliación Sistema de Agua Potable Rural Mariposas</t>
+          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Chequen</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,15 +5907,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Mariposas</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>26/01/2000</t>
+          <t>10/04/2000</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral Servicio de Agua Potable de Vilches Alto</t>
+          <t>Ampliación Sistema de Agua Potable Rural Mariposas</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,15 +5955,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Comité de Agua Potable Rural Mariposas</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>23/11/1999</t>
+          <t>26/01/2000</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de San Manuel</t>
+          <t>Mejoramiento Integral Servicio de Agua Potable de Vilches Alto</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,15 +6003,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>22/11/1999</t>
+          <t>23/11/1999</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de Paso Nevado</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de San Manuel</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Diseño Planta de Tratamiento Villa Flor del Llano</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de Paso Nevado</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,15 +6099,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>21/10/1999</t>
+          <t>22/11/1999</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural Sector San Jorge Norte</t>
+          <t>Diseño Planta de Tratamiento Villa Flor del Llano</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>16/09/1999</t>
+          <t>21/10/1999</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Sector Queri</t>
+          <t>Sistema de Servicio de Agua Potable Rural Sector San Jorge Norte</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>730</v>
+        <v>100</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>16/09/1999</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Construcción de Viviendas Sociales en San Clemente</t>
+          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Sector Queri</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,15 +6243,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Audilio Salas Bravo</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>560</v>
+        <v>730</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>26/04/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Alcantarillado Grupo Habitacional Flor del Llano</t>
+          <t>Construcción de Viviendas Sociales en San Clemente</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,25 +6291,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Audilio Salas Bravo</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>26/04/1999</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Loteo y Construcción de un Grupo Habitacional de 100 Viviendas Sociales</t>
+          <t>Mejoramiento del Sistema de Alcantarillado Grupo Habitacional Flor del Llano</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,25 +6339,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Constructora Cerutti S.A.</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>730</v>
+        <v>50</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>02/11/1998</t>
+          <t>11/11/1998</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas El Bolsico</t>
+          <t>Loteo y Construcción de un Grupo Habitacional de 100 Viviendas Sociales</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Constructora Cerutti S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>390</v>
+        <v>730</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/09/1998</t>
+          <t>02/11/1998</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Construcción Infraestructura Turística en Reserva Nacional Alto Lircay</t>
+          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas El Bolsico</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05/06/1998</t>
+          <t>30/09/1998</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Mejoramiento Servicios Reserva Nacional Altos de Lircay</t>
+          <t>Construcción Infraestructura Turística en Reserva Nacional Alto Lircay</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,11 +6487,11 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>14/07/1997</t>
+          <t>05/06/1998</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,30 +6516,30 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Mejoramiento Servicios Reserva Nacional Altos de Lircay</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>850000</v>
+        <v>70</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>14/07/1997</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,43 +6564,91 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>San Clemente</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Séptima</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F130" t="n">
+      <c r="F131" t="n">
         <v>60000</v>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>San Clemente</t>
         </is>

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/04/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>María Valeria Muñoz Ayala Agricultura y Acuicultura E.I.R.L</t>
+          <t>AQUASMOLT LIMITADA</t>
         </is>
       </c>
       <c r="F40" t="n">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Colbún Transmisión SA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DIA Embalse Agrícola Lircay</t>
+          <t>PLANTA FOTOVOLTAICA CAHUIL SOLAR II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Agrícola Lircay SpA</t>
+          <t>Cahuil Solar II S.p.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1200</v>
+        <v>6600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/04/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155623819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157939191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Embalse Agrícola Lircay</t>
+          <t>DIA Embalse Agrícola Lircay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155421850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155623819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Seccionamiento Línea 2x220 kV Ancoa ? Itahue en S/E Santa Isabel</t>
+          <t>Embalse Agrícola Lircay</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Agrícola Lircay SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9000</v>
+        <v>1200</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154161346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155421850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Interconexión Internacional de Interés Privado Los Cóndores (CL) - Río Diamante (AR)</t>
+          <t>Seccionamiento Línea 2x220 kV Ancoa ? Itahue en S/E Santa Isabel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153141507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154161346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
+          <t>Interconexión Internacional de Interés Privado Los Cóndores (CL) - Río Diamante (AR)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>36000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153141507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Extracción de Áridos, Rinconada Los Maitenes</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A.</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>16/04/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151359731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
+          <t>Extracción de Áridos, Rinconada Los Maitenes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Forestal Arauco S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>16/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151359731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149086295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Solar San Clemente Flor Del Llano</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>VESPA SOLAR SpA</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6500</v>
+        <v>100</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147481099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149086295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chequén</t>
+          <t>Parque Solar San Clemente Flor Del Llano</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MCV Solar 36 SpA</t>
+          <t>VESPA SOLAR SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147481099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Regularización Plantel Avícola Eduardo Reinero</t>
+          <t>Parque Fotovoltaico Chequén</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Avicola Eduardo Reinero Spa</t>
+          <t>MCV Solar 36 SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/02/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145633539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Cabimas</t>
+          <t>Regularización Plantel Avícola Eduardo Reinero</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fotovoltaica Arrayán SpA.</t>
+          <t>Avicola Eduardo Reinero Spa</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>15000</v>
+        <v>2800</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>18/02/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145000862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145633539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Plantel Avícola Eduardo Reinero</t>
+          <t>Proyecto Fotovoltaico Cabimas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Avicola Eduardo Reinero Spa</t>
+          <t>Fotovoltaica Arrayán SpA.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2800</v>
+        <v>15000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142664518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145000862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142345665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142664518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Actualización de Medidas de Flora y Fauna - CH Los Cóndores</t>
+          <t>Plantel Avícola Eduardo Reinero</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Avicola Eduardo Reinero Spa</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/11/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141836558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142345665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Minihidro El Médano</t>
+          <t>Actualización de Medidas de Flora y Fauna - CH Los Cóndores</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>22/11/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132549028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141836558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Plantel de Aves Sector Mariposas</t>
+          <t>Minihidro El Médano</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/12/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132014463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132549028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15/12/2016</t>
+          <t>21/12/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131956051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132014463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyecto Central Hidroeléctrica Los Maquis</t>
+          <t>Ampliación Plantel de Aves Sector Mariposas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hydrochile S.A</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>91000</v>
+        <v>4500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>15/12/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130949538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131956051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Los Maquis</t>
+          <t>Proyecto Central Hidroeléctrica Los Maquis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130921625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130949538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Optimización Proyecto Central Hidroeléctrica Río Colorado</t>
+          <t>Central Hidroeléctrica Los Maquis</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Hydrochile S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4750</v>
+        <v>91000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/10/2015</t>
+          <t>16/11/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130836108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130921625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>21/10/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130836108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Optimización Proyecto Central Hidroeléctrica Río Colorado</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>4750</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>92000</v>
+        <v>10</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18/02/2014</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,40 +1672,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA RÍO COLORADO</t>
+          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>49000</v>
+        <v>92000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/02/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión La Mina - Loma Alta y Subestaciones</t>
+          <t>CENTRAL HIDROELÉCTRICA RÍO COLORADO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Alfa Transmisora de Energía S.A.</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>12900</v>
+        <v>49000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128889248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta de Manejo y acopio de Guanos, Fuenzalida Moure y Compañía Ltda.</t>
+          <t>Línea de Alta Tensión La Mina - Loma Alta y Subestaciones</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>440</v>
+        <v>12900</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/10/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128542962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128889248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para aplicar Riles al Suelo Mediante Micro Aspersores, en Viña Casas Patronales S.A.</t>
+          <t>Planta de Manejo y acopio de Guanos, Fuenzalida Moure y Compañía Ltda.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>440</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/05/2013</t>
+          <t>09/10/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128542962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Apoyo en 220 kV a S/E Maule</t>
+          <t>Sistema de Tratamiento para aplicar Riles al Suelo Mediante Micro Aspersores, en Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>26000</v>
+        <v>50</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22/04/2013</t>
+          <t>30/05/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,30 +1912,30 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>Apoyo en 220 kV a S/E Maule</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>600</v>
+        <v>26000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>25/02/2013</t>
+          <t>22/04/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>25/02/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,40 +2008,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Río Colorado</t>
+          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>49000</v>
+        <v>600</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/01/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7767408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Optimización Proyecto Central Hidroeléctrica La Mina .</t>
+          <t>Central Hidroeléctrica Río Colorado</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>75000</v>
+        <v>49000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/12/2012</t>
+          <t>23/01/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7767408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE PROGRESIVO Y SELLADO DEL VERTEDERO SAN ROQUE, COMUNA DE SAN CLEMENTE"</t>
+          <t>Optimización Proyecto Central Hidroeléctrica La Mina .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>20/12/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7495302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Construcción de drenaje subsuperficial, Agrícola Santa Daniela Ltda, Fundo Los Maitenes</t>
+          <t>PLAN DE CIERRE PROGRESIVO Y SELLADO DEL VERTEDERO SAN ROQUE, COMUNA DE SAN CLEMENTE"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Santa Daniela Ltda</t>
+          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>25/10/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7451850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7495302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PISCICULTURA BAJO PERQUIN</t>
+          <t>Construcción de drenaje subsuperficial, Agrícola Santa Daniela Ltda, Fundo Los Maitenes</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Carlos Rodrigo Salgado Peñailillo</t>
+          <t>Sociedad Agrícola Santa Daniela Ltda</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>800</v>
+        <v>76</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19/10/2012</t>
+          <t>25/10/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7394217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7451850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>REGULARIZACION PISCICULTURA BRAMADERO</t>
+          <t>PISCICULTURA BAJO PERQUIN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AQUASMOLT LIMITADA</t>
+          <t>Carlos Rodrigo Salgado Peñailillo</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>28/09/2012</t>
+          <t>19/10/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7381320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7394217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA "LAS GARZAS"</t>
+          <t>REGULARIZACION PISCICULTURA BRAMADERO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Salmones Las Garzas Limitada</t>
+          <t>AQUASMOLT LIMITADA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/08/2012</t>
+          <t>28/09/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7145808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7381320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>REGULARIZACIÓN PISCICULTURA "LAS GARZAS"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Salmones Las Garzas Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>30/08/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7145808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
+          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura "El Colorado"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>M y M Servicios Mecanizados y Acuicultura Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>24/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>OPTIMIZACION DE OBRAS DE LA CENTRAL HIDROELECTRICA LOS CONDORES</t>
+          <t>Ampliación Piscicultura "El Colorado"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>M y M Servicios Mecanizados y Acuicultura Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>400000</v>
+        <v>500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/03/2011</t>
+          <t>24/10/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>OLIVAS PICHINGAL SpA</t>
+          <t>OPTIMIZACION DE OBRAS DE LA CENTRAL HIDROELECTRICA LOS CONDORES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OLIVAS PICHINGAL S.p.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>70</v>
+        <v>400000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>25/02/2011</t>
+          <t>17/03/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Providencia</t>
+          <t>OLIVAS PICHINGAL SpA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Providencia S.A.</t>
+          <t>OLIVAS PICHINGAL S.p.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>30000</v>
+        <v>70</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>25/02/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,26 +2680,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Central Hidroeléctrica Providencia</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Hidroeléctrica Providencia S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>130000</v>
+        <v>30000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,30 +2728,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Duao</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3000</v>
+        <v>130000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PLANTA COMPOSTAJE AGUA MARINA Y CIA .</t>
+          <t>Minicentral Hidroeléctrica Duao</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AGUA MARINA Y CIA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>333</v>
+        <v>3000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>12/11/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>LTE CH Los Cóndores - S/E Ancoa</t>
+          <t>PLANTA COMPOSTAJE AGUA MARINA Y CIA .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>AGUA MARINA Y CIA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>60000</v>
+        <v>333</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>05/10/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,40 +2872,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>LTE CH Los Cóndores - S/E Ancoa</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>05/10/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente .</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gonzalo Cordúa Hoffmann</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2080</v>
+        <v>2000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11/05/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4574095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modificación Central Hidroeléctrica Mariposas .</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Lircay S.A.</t>
+          <t>Gonzalo Cordúa Hoffmann</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>460</v>
+        <v>2080</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>14/04/2010</t>
+          <t>11/05/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4574095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica La Mina</t>
+          <t>Modificación Central Hidroeléctrica Mariposas .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidroeléctrica Río Lircay S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>74000</v>
+        <v>460</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13/04/2010</t>
+          <t>14/04/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,40 +3112,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Central Hidroeléctrica La Mina</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>74000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>13/04/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>plan de adecuacion del vertedero de residuos solidos domiciliarios y asimilables san roque a relleno sanitario de residuos solidos domiciliarios y asimilables san roque . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4330315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>plan de adecuacion del vertedero de residuos solidos domiciliarios y asimilables san roque a relleno sanitario de residuos solidos domiciliarios y asimilables san roque . (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,12 +3266,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>20/01/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4330315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Alfa Transmisora de Energía S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,10 +3448,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centrales Hidroeléctricas Río Puelche</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -3459,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Hydrochile S.A</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>140000</v>
+        <v>990</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09/04/2009</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3657332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3492,14 +3496,10 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta 115-CH, Tramo Puente Lo Aguirre, Límite Paso Pehuenche (e-seia)</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centrales Hidroeléctricas Río Puelche</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -3507,25 +3507,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Hydrochile S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>30000</v>
+        <v>140000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>09/04/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3657332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Mejoramiento Ruta 115-CH, Tramo Puente Lo Aguirre, Límite Paso Pehuenche (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3550,30 +3550,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Mariposas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3598,30 +3598,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Lircay S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>15300</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>13/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Eduardo" de San Clemente (e-seia)</t>
+          <t>Central Hidroeléctrica Mariposas (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3651,15 +3651,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Danilo Alberto Parra Loyola</t>
+          <t>Hidroeléctrica Río Lircay S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3600</v>
+        <v>15300</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>13/01/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Eduardo" de San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3694,30 +3694,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Danilo Alberto Parra Loyola</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NUEVA AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3742,30 +3742,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>05/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>NUEVA AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3790,20 +3790,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>05/11/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,25 +3843,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral del Sitema APR El Colorado, Comuna de San Clemente (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3886,30 +3886,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Juan Raul Rojas Vergara</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>426</v>
+        <v>234</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>03/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento Integral del Sitema APR El Colorado, Comuna de San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3934,30 +3934,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Juan Raul Rojas Vergara</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/10/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Línea Transmisión Lircay- Maule 1 x 66 kV (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3982,30 +3982,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Hidromaule S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2650</v>
+        <v>10</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>17/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea Transmisión Lircay- Maule 1 x 66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4030,30 +4030,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Hidromaule S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>300</v>
+        <v>2650</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>17/08/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,40 +4068,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"Central Hidroeléctrica Los Cóndores"</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>180000</v>
+        <v>300</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,12 +4116,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica San Clemente (e-seia)</t>
+          <t>"Central Hidroeléctrica Los Cóndores"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4131,15 +4131,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>29/05/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Piscicultura El Colorado (e-seia)</t>
+          <t>Central Hidroeléctrica San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4179,15 +4179,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Salmones Colbún Ltda</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1500</v>
+        <v>12000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02/05/2007</t>
+          <t>29/05/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Piscicultura El Colorado (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4222,30 +4222,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Salmones Colbún Ltda</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>02/05/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4283,17 +4283,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal San Clemente (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4318,16 +4318,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Juan Raul Rojas Vergara</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4336,12 +4336,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1898043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Plan Regulador Comunal San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4366,20 +4366,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Juan Raul Rojas Vergara</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1898043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Lircay (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4414,20 +4414,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hidromaule S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
+          <t>Central Hidroelectrica Lircay (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4467,15 +4467,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidromaule S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>203</v>
+        <v>20000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>12/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de RILes Viña Casas Patronales S.A. (e-seia)</t>
+          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4515,15 +4515,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>12/07/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento de RILes Viña Casas Patronales S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4558,30 +4558,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Riles, Viña Casas Patronales S.A. (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4606,20 +4606,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Nelson Murua Polanco</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1470315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento de Riles, Viña Casas Patronales S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4654,30 +4654,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Nelson Murua Polanco</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4000</v>
+        <v>64</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1470315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de vinos de Viñedos Terranoble Riles Bodega Vinos Terranoble (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4702,30 +4702,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Viñedos Terranoble S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de vinos de Viñedos Terranoble Riles Bodega Vinos Terranoble (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4750,30 +4750,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Viñedos Terranoble S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>07/03/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4803,25 +4803,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4851,25 +4851,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4907,17 +4907,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO INTEGRAL APR SAN DIEGO-BELLA UNION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4942,30 +4942,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>COMITE DE APR SAN DIEGO, BELLA UNION Y SAN LUIS DE ALICO</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>486</v>
+        <v>72</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1149334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Loteo Don Sebastian (e-seia)</t>
+          <t>MEJORAMIENTO INTEGRAL APR SAN DIEGO-BELLA UNION (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,25 +4995,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
+          <t>COMITE DE APR SAN DIEGO, BELLA UNION Y SAN LUIS DE ALICO</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4083</v>
+        <v>486</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1119974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1149334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Ojos de Agua (e-seia)</t>
+          <t>Loteo Don Sebastian (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,25 +5043,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>4083</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>31/08/2005</t>
+          <t>23/11/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1119974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Minicentral Hidroeléctrica Ojos de Agua (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,15 +5091,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>31/08/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,15 +5139,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=436459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Centro Shalom, Vilches Alto (e-seia)</t>
+          <t>AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,15 +5187,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Iglesia Pentecostal de Chile</t>
+          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>31/05/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=436459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Mariposas</t>
+          <t>Centro Shalom, Vilches Alto (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,25 +5235,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Iglesia Pentecostal de Chile</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>31/12/2002</t>
+          <t>31/05/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Queri</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Mariposas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Quebrada de Agua</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Queri</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE SAN CLEMENTE (e-seia)</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Quebrada de Agua</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,25 +5379,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13/11/2002</t>
+          <t>31/12/2002</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Consumo Propio a Venta de Combustible de la empresa Socotrans S.A. San Clemente</t>
+          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE SAN CLEMENTE (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,15 +5427,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Socieedad Socotrans S.A.</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>21/10/2002</t>
+          <t>13/11/2002</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,12 +5460,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
+          <t>Modificación de Instalaciones Consumo Propio a Venta de Combustible de la empresa Socotrans S.A. San Clemente</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -5475,15 +5475,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Socieedad Socotrans S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>14080</v>
+        <v>40</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>21/10/2002</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,12 +5508,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Piloto Reserva Nacional Altos de Lircay</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>30</v>
+        <v>14080</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>23/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,12 +5556,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
+          <t>Sendero de Chile Tramo Piloto Reserva Nacional Altos de Lircay</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5571,25 +5571,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>14080</v>
+        <v>30</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>23/08/2002</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>14080</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>24/06/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Villa Conavicoop - San Clemente</t>
+          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,15 +5667,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>2260</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07/06/2002</t>
+          <t>24/06/2002</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Estación de Servicios Huamachuco</t>
+          <t>Conjunto Habitacional Villa Conavicoop - San Clemente</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>2260</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>17/12/2001</t>
+          <t>07/06/2002</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Viña Casas Patronales 2</t>
+          <t>Estación de Servicios Huamachuco</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>12/12/2001</t>
+          <t>17/12/2001</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural Los Montes Comuna de San Clemente Provincia de Talca Región del Maule</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Viña Casas Patronales 2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,15 +5811,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>08/03/2001</t>
+          <t>12/12/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Fundo Los Lirios Comuna de San Clemente Provincia de Talca Región del Maule</t>
+          <t>Instalación de Servicio de Agua Potable Rural Los Montes Comuna de San Clemente Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad Fruticola El Aromo Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5867,7 +5867,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>20/12/2000</t>
+          <t>08/03/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Chequen</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Fundo Los Lirios Comuna de San Clemente Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,15 +5907,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Sociedad Fruticola El Aromo Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>10/04/2000</t>
+          <t>20/12/2000</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ampliación Sistema de Agua Potable Rural Mariposas</t>
+          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Chequen</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,15 +5955,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Mariposas</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>26/01/2000</t>
+          <t>10/04/2000</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral Servicio de Agua Potable de Vilches Alto</t>
+          <t>Ampliación Sistema de Agua Potable Rural Mariposas</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,15 +6003,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Comité de Agua Potable Rural Mariposas</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>23/11/1999</t>
+          <t>26/01/2000</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de San Manuel</t>
+          <t>Mejoramiento Integral Servicio de Agua Potable de Vilches Alto</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,15 +6051,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>22/11/1999</t>
+          <t>23/11/1999</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de Paso Nevado</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de San Manuel</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,7 +6103,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Diseño Planta de Tratamiento Villa Flor del Llano</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de Paso Nevado</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,15 +6147,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>21/10/1999</t>
+          <t>22/11/1999</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural Sector San Jorge Norte</t>
+          <t>Diseño Planta de Tratamiento Villa Flor del Llano</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>16/09/1999</t>
+          <t>21/10/1999</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Sector Queri</t>
+          <t>Sistema de Servicio de Agua Potable Rural Sector San Jorge Norte</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>730</v>
+        <v>100</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>16/09/1999</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Construcción de Viviendas Sociales en San Clemente</t>
+          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Sector Queri</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Audilio Salas Bravo</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>560</v>
+        <v>730</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>26/04/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Alcantarillado Grupo Habitacional Flor del Llano</t>
+          <t>Construcción de Viviendas Sociales en San Clemente</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,25 +6339,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Audilio Salas Bravo</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>26/04/1999</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Loteo y Construcción de un Grupo Habitacional de 100 Viviendas Sociales</t>
+          <t>Mejoramiento del Sistema de Alcantarillado Grupo Habitacional Flor del Llano</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,25 +6387,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Constructora Cerutti S.A.</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>730</v>
+        <v>50</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>02/11/1998</t>
+          <t>11/11/1998</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas El Bolsico</t>
+          <t>Loteo y Construcción de un Grupo Habitacional de 100 Viviendas Sociales</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Constructora Cerutti S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>390</v>
+        <v>730</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/09/1998</t>
+          <t>02/11/1998</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Construcción Infraestructura Turística en Reserva Nacional Alto Lircay</t>
+          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas El Bolsico</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>05/06/1998</t>
+          <t>30/09/1998</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Mejoramiento Servicios Reserva Nacional Altos de Lircay</t>
+          <t>Construcción Infraestructura Turística en Reserva Nacional Alto Lircay</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,11 +6535,11 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>14/07/1997</t>
+          <t>05/06/1998</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,30 +6564,30 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Mejoramiento Servicios Reserva Nacional Altos de Lircay</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>850000</v>
+        <v>70</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>14/07/1997</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,43 +6612,91 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>San Clemente</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Séptima</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F131" t="n">
+      <c r="F132" t="n">
         <v>60000</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>San Clemente</t>
         </is>

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/12/2022</t>
+          <t>18/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2023</t>
+          <t>18/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -5523,7 +5523,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F110" t="n">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J132"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANTA FOTOVOLTAICA CAHUIL SOLAR II</t>
+          <t>BioCircular Los Ciruelos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cahuil Solar II S.p.A.</t>
+          <t>Genera4 SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6600</v>
+        <v>15000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/12/2022</t>
+          <t>17/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157939191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158868654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DIA Embalse Agrícola Lircay</t>
+          <t>PLANTA FOTOVOLTAICA CAHUIL SOLAR II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Agrícola Lircay SpA</t>
+          <t>Cahuil Solar II S.p.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1200</v>
+        <v>6600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/04/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155623819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157939191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Embalse Agrícola Lircay</t>
+          <t>DIA Embalse Agrícola Lircay</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155421850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155623819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Seccionamiento Línea 2x220 kV Ancoa ? Itahue en S/E Santa Isabel</t>
+          <t>Embalse Agrícola Lircay</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Agrícola Lircay SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9000</v>
+        <v>1200</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154161346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155421850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Interconexión Internacional de Interés Privado Los Cóndores (CL) - Río Diamante (AR)</t>
+          <t>Seccionamiento Línea 2x220 kV Ancoa ? Itahue en S/E Santa Isabel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153141507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154161346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
+          <t>Interconexión Internacional de Interés Privado Los Cóndores (CL) - Río Diamante (AR)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>36000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153141507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Extracción de Áridos, Rinconada Los Maitenes</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A.</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16/04/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151359731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
+          <t>Extracción de Áridos, Rinconada Los Maitenes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Forestal Arauco S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>16/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151359731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149086295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Solar San Clemente Flor Del Llano</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>VESPA SOLAR SpA</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6500</v>
+        <v>100</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147481099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149086295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chequén</t>
+          <t>Parque Solar San Clemente Flor Del Llano</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MCV Solar 36 SpA</t>
+          <t>VESPA SOLAR SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147481099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Regularización Plantel Avícola Eduardo Reinero</t>
+          <t>Parque Fotovoltaico Chequén</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Avicola Eduardo Reinero Spa</t>
+          <t>MCV Solar 36 SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/02/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145633539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Cabimas</t>
+          <t>Regularización Plantel Avícola Eduardo Reinero</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fotovoltaica Arrayán SpA.</t>
+          <t>Avicola Eduardo Reinero Spa</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15000</v>
+        <v>2800</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>18/02/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145000862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145633539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Plantel Avícola Eduardo Reinero</t>
+          <t>Proyecto Fotovoltaico Cabimas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Avicola Eduardo Reinero Spa</t>
+          <t>Fotovoltaica Arrayán SpA.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2800</v>
+        <v>15000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142664518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145000862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142345665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142664518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Actualización de Medidas de Flora y Fauna - CH Los Cóndores</t>
+          <t>Plantel Avícola Eduardo Reinero</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Avicola Eduardo Reinero Spa</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/11/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141836558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142345665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Minihidro El Médano</t>
+          <t>Actualización de Medidas de Flora y Fauna - CH Los Cóndores</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>22/11/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132549028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141836558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Plantel de Aves Sector Mariposas</t>
+          <t>Minihidro El Médano</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/12/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132014463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132549028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15/12/2016</t>
+          <t>21/12/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131956051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132014463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Proyecto Central Hidroeléctrica Los Maquis</t>
+          <t>Ampliación Plantel de Aves Sector Mariposas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hydrochile S.A</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>91000</v>
+        <v>4500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>15/12/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130949538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131956051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Los Maquis</t>
+          <t>Proyecto Central Hidroeléctrica Los Maquis</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130921625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130949538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Optimización Proyecto Central Hidroeléctrica Río Colorado</t>
+          <t>Central Hidroeléctrica Los Maquis</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Hydrochile S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4750</v>
+        <v>91000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21/10/2015</t>
+          <t>16/11/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130836108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130921625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>21/10/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130836108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Optimización Proyecto Central Hidroeléctrica Río Colorado</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
+        <v>4750</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>92000</v>
+        <v>10</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18/02/2014</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,40 +1720,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA RÍO COLORADO</t>
+          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>49000</v>
+        <v>92000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/02/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión La Mina - Loma Alta y Subestaciones</t>
+          <t>CENTRAL HIDROELÉCTRICA RÍO COLORADO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Alfa Transmisora de Energía S.A.</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>12900</v>
+        <v>49000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128889248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta de Manejo y acopio de Guanos, Fuenzalida Moure y Compañía Ltda.</t>
+          <t>Línea de Alta Tensión La Mina - Loma Alta y Subestaciones</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>440</v>
+        <v>12900</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09/10/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128542962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128889248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para aplicar Riles al Suelo Mediante Micro Aspersores, en Viña Casas Patronales S.A.</t>
+          <t>Planta de Manejo y acopio de Guanos, Fuenzalida Moure y Compañía Ltda.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>440</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/05/2013</t>
+          <t>09/10/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128542962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apoyo en 220 kV a S/E Maule</t>
+          <t>Sistema de Tratamiento para aplicar Riles al Suelo Mediante Micro Aspersores, en Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>26000</v>
+        <v>50</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22/04/2013</t>
+          <t>30/05/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,30 +1960,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>Apoyo en 220 kV a S/E Maule</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>600</v>
+        <v>26000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>25/02/2013</t>
+          <t>22/04/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>25/02/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,40 +2056,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Río Colorado</t>
+          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>49000</v>
+        <v>600</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/01/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7767408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Optimización Proyecto Central Hidroeléctrica La Mina .</t>
+          <t>Central Hidroeléctrica Río Colorado</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>75000</v>
+        <v>49000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/12/2012</t>
+          <t>23/01/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7767408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE PROGRESIVO Y SELLADO DEL VERTEDERO SAN ROQUE, COMUNA DE SAN CLEMENTE"</t>
+          <t>Optimización Proyecto Central Hidroeléctrica La Mina .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>20/12/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7495302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Construcción de drenaje subsuperficial, Agrícola Santa Daniela Ltda, Fundo Los Maitenes</t>
+          <t>PLAN DE CIERRE PROGRESIVO Y SELLADO DEL VERTEDERO SAN ROQUE, COMUNA DE SAN CLEMENTE"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Santa Daniela Ltda</t>
+          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>25/10/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7451850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7495302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PISCICULTURA BAJO PERQUIN</t>
+          <t>Construcción de drenaje subsuperficial, Agrícola Santa Daniela Ltda, Fundo Los Maitenes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Carlos Rodrigo Salgado Peñailillo</t>
+          <t>Sociedad Agrícola Santa Daniela Ltda</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>76</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19/10/2012</t>
+          <t>25/10/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7394217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7451850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>REGULARIZACION PISCICULTURA BRAMADERO</t>
+          <t>PISCICULTURA BAJO PERQUIN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AQUASMOLT LIMITADA</t>
+          <t>Carlos Rodrigo Salgado Peñailillo</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>28/09/2012</t>
+          <t>19/10/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7381320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7394217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA "LAS GARZAS"</t>
+          <t>REGULARIZACION PISCICULTURA BRAMADERO</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Salmones Las Garzas Limitada</t>
+          <t>AQUASMOLT LIMITADA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/08/2012</t>
+          <t>28/09/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7145808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7381320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>REGULARIZACIÓN PISCICULTURA "LAS GARZAS"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Salmones Las Garzas Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>30/08/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7145808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
+          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura "El Colorado"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>M y M Servicios Mecanizados y Acuicultura Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>24/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>OPTIMIZACION DE OBRAS DE LA CENTRAL HIDROELECTRICA LOS CONDORES</t>
+          <t>Ampliación Piscicultura "El Colorado"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>M y M Servicios Mecanizados y Acuicultura Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>400000</v>
+        <v>500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/03/2011</t>
+          <t>24/10/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>OLIVAS PICHINGAL SpA</t>
+          <t>OPTIMIZACION DE OBRAS DE LA CENTRAL HIDROELECTRICA LOS CONDORES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OLIVAS PICHINGAL S.p.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>70</v>
+        <v>400000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>25/02/2011</t>
+          <t>17/03/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Providencia</t>
+          <t>OLIVAS PICHINGAL SpA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Providencia S.A.</t>
+          <t>OLIVAS PICHINGAL S.p.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>30000</v>
+        <v>70</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>25/02/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,26 +2728,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Central Hidroeléctrica Providencia</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Hidroeléctrica Providencia S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>130000</v>
+        <v>30000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,30 +2776,30 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Duao</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3000</v>
+        <v>130000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PLANTA COMPOSTAJE AGUA MARINA Y CIA .</t>
+          <t>Minicentral Hidroeléctrica Duao</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AGUA MARINA Y CIA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>333</v>
+        <v>3000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>12/11/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LTE CH Los Cóndores - S/E Ancoa</t>
+          <t>PLANTA COMPOSTAJE AGUA MARINA Y CIA .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>AGUA MARINA Y CIA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>60000</v>
+        <v>333</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>05/10/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,40 +2920,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>LTE CH Los Cóndores - S/E Ancoa</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>05/10/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente .</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Gonzalo Cordúa Hoffmann</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2080</v>
+        <v>2000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11/05/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4574095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Modificación Central Hidroeléctrica Mariposas .</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente .</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Lircay S.A.</t>
+          <t>Gonzalo Cordúa Hoffmann</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>460</v>
+        <v>2080</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14/04/2010</t>
+          <t>11/05/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4574095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica La Mina</t>
+          <t>Modificación Central Hidroeléctrica Mariposas .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidroeléctrica Río Lircay S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>74000</v>
+        <v>460</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13/04/2010</t>
+          <t>14/04/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,40 +3160,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Central Hidroeléctrica La Mina</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>74000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>13/04/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>plan de adecuacion del vertedero de residuos solidos domiciliarios y asimilables san roque a relleno sanitario de residuos solidos domiciliarios y asimilables san roque . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,12 +3266,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4330315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>plan de adecuacion del vertedero de residuos solidos domiciliarios y asimilables san roque a relleno sanitario de residuos solidos domiciliarios y asimilables san roque . (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>20/01/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4330315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Alfa Transmisora de Energía S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,10 +3496,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centrales Hidroeléctricas Río Puelche</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -3507,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Hydrochile S.A</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>140000</v>
+        <v>990</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09/04/2009</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3657332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3540,14 +3544,10 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta 115-CH, Tramo Puente Lo Aguirre, Límite Paso Pehuenche (e-seia)</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centrales Hidroeléctricas Río Puelche</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -3555,25 +3555,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Hydrochile S.A</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>30000</v>
+        <v>140000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>09/04/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3657332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Mejoramiento Ruta 115-CH, Tramo Puente Lo Aguirre, Límite Paso Pehuenche (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3598,30 +3598,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Mariposas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3646,30 +3646,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Lircay S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>15300</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Eduardo" de San Clemente (e-seia)</t>
+          <t>Central Hidroeléctrica Mariposas (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3699,15 +3699,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Danilo Alberto Parra Loyola</t>
+          <t>Hidroeléctrica Río Lircay S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3600</v>
+        <v>15300</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>13/01/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Eduardo" de San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3742,30 +3742,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Danilo Alberto Parra Loyola</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NUEVA AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3790,30 +3790,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>05/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>NUEVA AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3838,20 +3838,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>05/11/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3891,25 +3891,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral del Sitema APR El Colorado, Comuna de San Clemente (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3934,30 +3934,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Juan Raul Rojas Vergara</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>426</v>
+        <v>234</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>03/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento Integral del Sitema APR El Colorado, Comuna de San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3982,30 +3982,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Juan Raul Rojas Vergara</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/10/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Línea Transmisión Lircay- Maule 1 x 66 kV (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4030,30 +4030,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Hidromaule S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2650</v>
+        <v>10</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>17/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea Transmisión Lircay- Maule 1 x 66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4078,30 +4078,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Hidromaule S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>300</v>
+        <v>2650</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>17/08/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,40 +4116,40 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"Central Hidroeléctrica Los Cóndores"</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>180000</v>
+        <v>300</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,12 +4164,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica San Clemente (e-seia)</t>
+          <t>"Central Hidroeléctrica Los Cóndores"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4179,15 +4179,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>29/05/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Piscicultura El Colorado (e-seia)</t>
+          <t>Central Hidroeléctrica San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4227,15 +4227,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Salmones Colbún Ltda</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1500</v>
+        <v>12000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02/05/2007</t>
+          <t>29/05/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Piscicultura El Colorado (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4270,30 +4270,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Salmones Colbún Ltda</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>02/05/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4331,17 +4331,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal San Clemente (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4366,16 +4366,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Juan Raul Rojas Vergara</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4384,12 +4384,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1898043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Plan Regulador Comunal San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4414,20 +4414,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Juan Raul Rojas Vergara</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1898043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Lircay (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4462,20 +4462,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Hidromaule S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
+          <t>Central Hidroelectrica Lircay (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4515,15 +4515,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidromaule S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>203</v>
+        <v>20000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>12/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de RILes Viña Casas Patronales S.A. (e-seia)</t>
+          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4563,15 +4563,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>12/07/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento de RILes Viña Casas Patronales S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4606,30 +4606,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Riles, Viña Casas Patronales S.A. (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4654,20 +4654,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Nelson Murua Polanco</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1470315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento de Riles, Viña Casas Patronales S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4702,30 +4702,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Nelson Murua Polanco</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4000</v>
+        <v>64</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1470315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de vinos de Viñedos Terranoble Riles Bodega Vinos Terranoble (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4750,30 +4750,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Viñedos Terranoble S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de vinos de Viñedos Terranoble Riles Bodega Vinos Terranoble (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4798,30 +4798,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Viñedos Terranoble S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>07/03/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4851,25 +4851,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,25 +4899,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4955,17 +4955,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO INTEGRAL APR SAN DIEGO-BELLA UNION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4990,30 +4990,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>COMITE DE APR SAN DIEGO, BELLA UNION Y SAN LUIS DE ALICO</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>486</v>
+        <v>72</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1149334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Loteo Don Sebastian (e-seia)</t>
+          <t>MEJORAMIENTO INTEGRAL APR SAN DIEGO-BELLA UNION (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5043,25 +5043,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
+          <t>COMITE DE APR SAN DIEGO, BELLA UNION Y SAN LUIS DE ALICO</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4083</v>
+        <v>486</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1119974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1149334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Ojos de Agua (e-seia)</t>
+          <t>Loteo Don Sebastian (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,25 +5091,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>4083</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>31/08/2005</t>
+          <t>23/11/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1119974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Minicentral Hidroeléctrica Ojos de Agua (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,15 +5139,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>31/08/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,15 +5187,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=436459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Centro Shalom, Vilches Alto (e-seia)</t>
+          <t>AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,15 +5235,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Iglesia Pentecostal de Chile</t>
+          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>31/05/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=436459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Mariposas</t>
+          <t>Centro Shalom, Vilches Alto (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,25 +5283,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Iglesia Pentecostal de Chile</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>31/12/2002</t>
+          <t>31/05/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Queri</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Mariposas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Quebrada de Agua</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Queri</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE SAN CLEMENTE (e-seia)</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Quebrada de Agua</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,25 +5427,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>13/11/2002</t>
+          <t>31/12/2002</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Consumo Propio a Venta de Combustible de la empresa Socotrans S.A. San Clemente</t>
+          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE SAN CLEMENTE (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,15 +5475,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Socieedad Socotrans S.A.</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>21/10/2002</t>
+          <t>13/11/2002</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,12 +5508,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
+          <t>Modificación de Instalaciones Consumo Propio a Venta de Combustible de la empresa Socotrans S.A. San Clemente</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Socieedad Socotrans S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>14080</v>
+        <v>40</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>21/10/2002</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,12 +5556,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Piloto Reserva Nacional Altos de Lircay</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>30</v>
+        <v>14080</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>23/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
+          <t>Sendero de Chile Tramo Piloto Reserva Nacional Altos de Lircay</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>14080</v>
+        <v>30</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>23/08/2002</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,12 +5652,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1000</v>
+        <v>14080</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>24/06/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Villa Conavicoop - San Clemente</t>
+          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,15 +5715,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>2260</v>
+        <v>1000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07/06/2002</t>
+          <t>24/06/2002</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Estación de Servicios Huamachuco</t>
+          <t>Conjunto Habitacional Villa Conavicoop - San Clemente</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>100</v>
+        <v>2260</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>17/12/2001</t>
+          <t>07/06/2002</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Viña Casas Patronales 2</t>
+          <t>Estación de Servicios Huamachuco</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,15 +5811,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>12/12/2001</t>
+          <t>17/12/2001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural Los Montes Comuna de San Clemente Provincia de Talca Región del Maule</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Viña Casas Patronales 2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>08/03/2001</t>
+          <t>12/12/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Fundo Los Lirios Comuna de San Clemente Provincia de Talca Región del Maule</t>
+          <t>Instalación de Servicio de Agua Potable Rural Los Montes Comuna de San Clemente Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad Fruticola El Aromo Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>20/12/2000</t>
+          <t>08/03/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Chequen</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Fundo Los Lirios Comuna de San Clemente Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,15 +5955,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Sociedad Fruticola El Aromo Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10/04/2000</t>
+          <t>20/12/2000</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ampliación Sistema de Agua Potable Rural Mariposas</t>
+          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Chequen</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,15 +6003,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Mariposas</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>26/01/2000</t>
+          <t>10/04/2000</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral Servicio de Agua Potable de Vilches Alto</t>
+          <t>Ampliación Sistema de Agua Potable Rural Mariposas</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,15 +6051,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Comité de Agua Potable Rural Mariposas</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>23/11/1999</t>
+          <t>26/01/2000</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de San Manuel</t>
+          <t>Mejoramiento Integral Servicio de Agua Potable de Vilches Alto</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,15 +6099,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>22/11/1999</t>
+          <t>23/11/1999</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de Paso Nevado</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de San Manuel</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Diseño Planta de Tratamiento Villa Flor del Llano</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de Paso Nevado</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,15 +6195,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>21/10/1999</t>
+          <t>22/11/1999</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural Sector San Jorge Norte</t>
+          <t>Diseño Planta de Tratamiento Villa Flor del Llano</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16/09/1999</t>
+          <t>21/10/1999</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Sector Queri</t>
+          <t>Sistema de Servicio de Agua Potable Rural Sector San Jorge Norte</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,11 +6295,11 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>730</v>
+        <v>100</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>16/09/1999</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Construcción de Viviendas Sociales en San Clemente</t>
+          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Sector Queri</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Audilio Salas Bravo</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>560</v>
+        <v>730</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>26/04/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Alcantarillado Grupo Habitacional Flor del Llano</t>
+          <t>Construcción de Viviendas Sociales en San Clemente</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,25 +6387,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Audilio Salas Bravo</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>26/04/1999</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Loteo y Construcción de un Grupo Habitacional de 100 Viviendas Sociales</t>
+          <t>Mejoramiento del Sistema de Alcantarillado Grupo Habitacional Flor del Llano</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,25 +6435,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Constructora Cerutti S.A.</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>730</v>
+        <v>50</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>02/11/1998</t>
+          <t>11/11/1998</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas El Bolsico</t>
+          <t>Loteo y Construcción de un Grupo Habitacional de 100 Viviendas Sociales</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Constructora Cerutti S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>390</v>
+        <v>730</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/09/1998</t>
+          <t>02/11/1998</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Construcción Infraestructura Turística en Reserva Nacional Alto Lircay</t>
+          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas El Bolsico</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>05/06/1998</t>
+          <t>30/09/1998</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mejoramiento Servicios Reserva Nacional Altos de Lircay</t>
+          <t>Construcción Infraestructura Turística en Reserva Nacional Alto Lircay</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,11 +6583,11 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>14/07/1997</t>
+          <t>05/06/1998</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,30 +6612,30 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Mejoramiento Servicios Reserva Nacional Altos de Lircay</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>850000</v>
+        <v>70</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>14/07/1997</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,43 +6660,91 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>San Clemente</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Séptima</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F132" t="n">
+      <c r="F133" t="n">
         <v>60000</v>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>San Clemente</t>
         </is>

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>23/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/03/2023</t>
+          <t>28/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J133"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BioCircular Los Ciruelos</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS QUÍMICAS Y RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Genera4 SpA</t>
+          <t>Transportes Bretti Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/03/2023</t>
+          <t>24/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158868654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160297313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANTA FOTOVOLTAICA CAHUIL SOLAR II</t>
+          <t>BioCircular Los Ciruelos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cahuil Solar II S.p.A.</t>
+          <t>Genera4 SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6600</v>
+        <v>15000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/12/2022</t>
+          <t>28/03/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157939191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158868654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DIA Embalse Agrícola Lircay</t>
+          <t>PLANTA FOTOVOLTAICA CAHUIL SOLAR II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Agrícola Lircay SpA</t>
+          <t>Cahuil Solar II S.p.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1200</v>
+        <v>6600</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/04/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155623819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157939191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Embalse Agrícola Lircay</t>
+          <t>DIA Embalse Agrícola Lircay</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>20/04/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155421850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155623819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Seccionamiento Línea 2x220 kV Ancoa ? Itahue en S/E Santa Isabel</t>
+          <t>Embalse Agrícola Lircay</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Agrícola Lircay SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9000</v>
+        <v>1200</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154161346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155421850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Interconexión Internacional de Interés Privado Los Cóndores (CL) - Río Diamante (AR)</t>
+          <t>Seccionamiento Línea 2x220 kV Ancoa ? Itahue en S/E Santa Isabel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>36000</v>
+        <v>9000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153141507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154161346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
+          <t>Interconexión Internacional de Interés Privado Los Cóndores (CL) - Río Diamante (AR)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>36000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153141507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Extracción de Áridos, Rinconada Los Maitenes</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Forestal Arauco S.A.</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16/04/2021</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151359731&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151517628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
+          <t>Extracción de Áridos, Rinconada Los Maitenes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Forestal Arauco S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>16/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151359731&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/11/2020</t>
+          <t>24/03/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149086295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151182162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Solar San Clemente Flor Del Llano</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA DE HUEVOS LIQUIDOS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VESPA SOLAR SpA</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6500</v>
+        <v>100</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/07/2020</t>
+          <t>23/11/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147481099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149086295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Chequén</t>
+          <t>Parque Solar San Clemente Flor Del Llano</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MCV Solar 36 SpA</t>
+          <t>VESPA SOLAR SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/03/2020</t>
+          <t>22/07/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147481099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Regularización Plantel Avícola Eduardo Reinero</t>
+          <t>Parque Fotovoltaico Chequén</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Avicola Eduardo Reinero Spa</t>
+          <t>MCV Solar 36 SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2800</v>
+        <v>9000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/02/2020</t>
+          <t>23/03/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145633539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145960340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Cabimas</t>
+          <t>Regularización Plantel Avícola Eduardo Reinero</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fotovoltaica Arrayán SpA.</t>
+          <t>Avicola Eduardo Reinero Spa</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>15000</v>
+        <v>2800</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>18/02/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145000862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145633539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Plantel Avícola Eduardo Reinero</t>
+          <t>Proyecto Fotovoltaico Cabimas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Avicola Eduardo Reinero Spa</t>
+          <t>Fotovoltaica Arrayán SpA.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2800</v>
+        <v>15000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/03/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142664518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145000862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>21/03/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142345665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142664518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Actualización de Medidas de Flora y Fauna - CH Los Cóndores</t>
+          <t>Plantel Avícola Eduardo Reinero</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Avicola Eduardo Reinero Spa</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/11/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141836558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142345665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Minihidro El Médano</t>
+          <t>Actualización de Medidas de Flora y Fauna - CH Los Cóndores</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>22/11/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132549028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141836558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Plantel de Aves Sector Mariposas</t>
+          <t>Minihidro El Médano</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/12/2016</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132014463&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132549028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15/12/2016</t>
+          <t>21/12/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131956051&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132014463&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Proyecto Central Hidroeléctrica Los Maquis</t>
+          <t>Ampliación Plantel de Aves Sector Mariposas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hydrochile S.A</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>91000</v>
+        <v>4500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18/12/2015</t>
+          <t>15/12/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130949538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131956051&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Los Maquis</t>
+          <t>Proyecto Central Hidroeléctrica Los Maquis</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16/11/2015</t>
+          <t>18/12/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130921625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130949538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Optimización Proyecto Central Hidroeléctrica Río Colorado</t>
+          <t>Central Hidroeléctrica Los Maquis</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Hydrochile S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4750</v>
+        <v>91000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21/10/2015</t>
+          <t>16/11/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130836108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130921625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>21/10/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130836108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Optimización Proyecto Central Hidroeléctrica Río Colorado</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>4750</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130790567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>92000</v>
+        <v>10</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/03/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/02/2014</t>
+          <t>20/03/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129308466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,40 +1768,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA RÍO COLORADO</t>
+          <t>Línea Ancoa - Alto Jahuel 500 kV: Tendido del Segundo Circuito</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>49000</v>
+        <v>92000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>18/02/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129279159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión La Mina - Loma Alta y Subestaciones</t>
+          <t>CENTRAL HIDROELÉCTRICA RÍO COLORADO</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Alfa Transmisora de Energía S.A.</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>12900</v>
+        <v>49000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128889248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128948518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta de Manejo y acopio de Guanos, Fuenzalida Moure y Compañía Ltda.</t>
+          <t>Línea de Alta Tensión La Mina - Loma Alta y Subestaciones</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FUENZALIDA MOURE SPA</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>440</v>
+        <v>12900</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09/10/2013</t>
+          <t>06/12/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128542962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128889248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para aplicar Riles al Suelo Mediante Micro Aspersores, en Viña Casas Patronales S.A.</t>
+          <t>Planta de Manejo y acopio de Guanos, Fuenzalida Moure y Compañía Ltda.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>FUENZALIDA MOURE SPA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>440</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30/05/2013</t>
+          <t>09/10/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128542962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apoyo en 220 kV a S/E Maule</t>
+          <t>Sistema de Tratamiento para aplicar Riles al Suelo Mediante Micro Aspersores, en Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>26000</v>
+        <v>50</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22/04/2013</t>
+          <t>30/05/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8192101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,30 +2008,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>Apoyo en 220 kV a S/E Maule</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>600</v>
+        <v>26000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>25/02/2013</t>
+          <t>22/04/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8073538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>18/02/2013</t>
+          <t>25/02/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7908114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,40 +2104,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Río Colorado</t>
+          <t>Complementos para el Tendido y Operación y Rectificación de Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Colorado S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>49000</v>
+        <v>600</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/01/2013</t>
+          <t>18/02/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7767408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7872483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Optimización Proyecto Central Hidroeléctrica La Mina .</t>
+          <t>Central Hidroeléctrica Río Colorado</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidroeléctrica Río Colorado S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>75000</v>
+        <v>49000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/12/2012</t>
+          <t>23/01/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7767408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE PROGRESIVO Y SELLADO DEL VERTEDERO SAN ROQUE, COMUNA DE SAN CLEMENTE"</t>
+          <t>Optimización Proyecto Central Hidroeléctrica La Mina .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/11/2012</t>
+          <t>20/12/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7495302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7624677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción de drenaje subsuperficial, Agrícola Santa Daniela Ltda, Fundo Los Maitenes</t>
+          <t>PLAN DE CIERRE PROGRESIVO Y SELLADO DEL VERTEDERO SAN ROQUE, COMUNA DE SAN CLEMENTE"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Santa Daniela Ltda</t>
+          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>25/10/2012</t>
+          <t>05/11/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7451850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7495302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PISCICULTURA BAJO PERQUIN</t>
+          <t>Construcción de drenaje subsuperficial, Agrícola Santa Daniela Ltda, Fundo Los Maitenes</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Carlos Rodrigo Salgado Peñailillo</t>
+          <t>Sociedad Agrícola Santa Daniela Ltda</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>800</v>
+        <v>76</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19/10/2012</t>
+          <t>25/10/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7394217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7451850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>REGULARIZACION PISCICULTURA BRAMADERO</t>
+          <t>PISCICULTURA BAJO PERQUIN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AQUASMOLT LIMITADA</t>
+          <t>Carlos Rodrigo Salgado Peñailillo</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>28/09/2012</t>
+          <t>19/10/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7381320&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7394217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PISCICULTURA "LAS GARZAS"</t>
+          <t>REGULARIZACION PISCICULTURA BRAMADERO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Salmones Las Garzas Limitada</t>
+          <t>AQUASMOLT LIMITADA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/08/2012</t>
+          <t>28/09/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7145808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7381320&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
+          <t>REGULARIZACIÓN PISCICULTURA "LAS GARZAS"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Salmones Las Garzas Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14/08/2012</t>
+          <t>30/08/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7145808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
+          <t>Modificación al Trazado Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>14/08/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7223287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Ajuste al Proyecto Línea Ancoa - Alto Jahuel 2x500kV: Primer Circuito .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7052914&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura "El Colorado"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>M y M Servicios Mecanizados y Acuicultura Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>24/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>OPTIMIZACION DE OBRAS DE LA CENTRAL HIDROELECTRICA LOS CONDORES</t>
+          <t>Ampliación Piscicultura "El Colorado"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>M y M Servicios Mecanizados y Acuicultura Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>400000</v>
+        <v>500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/03/2011</t>
+          <t>24/10/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6184643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>OLIVAS PICHINGAL SpA</t>
+          <t>OPTIMIZACION DE OBRAS DE LA CENTRAL HIDROELECTRICA LOS CONDORES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OLIVAS PICHINGAL S.p.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>70</v>
+        <v>400000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>25/02/2011</t>
+          <t>17/03/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Providencia</t>
+          <t>OLIVAS PICHINGAL SpA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Providencia S.A.</t>
+          <t>OLIVAS PICHINGAL S.p.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>30000</v>
+        <v>70</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14/12/2010</t>
+          <t>25/02/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5384225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,26 +2776,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Central Hidroeléctrica Providencia</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Hidroeléctrica Providencia S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>130000</v>
+        <v>30000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,30 +2824,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Duao</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>3000</v>
+        <v>130000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/11/2010</t>
+          <t>14/12/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066372&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PLANTA COMPOSTAJE AGUA MARINA Y CIA .</t>
+          <t>Minicentral Hidroeléctrica Duao</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>AGUA MARINA Y CIA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>333</v>
+        <v>3000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>12/11/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5066372&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LTE CH Los Cóndores - S/E Ancoa</t>
+          <t>PLANTA COMPOSTAJE AGUA MARINA Y CIA .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>AGUA MARINA Y CIA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>60000</v>
+        <v>333</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>05/10/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4987317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,40 +2968,40 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>LTE CH Los Cóndores - S/E Ancoa</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>300</v>
+        <v>60000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>05/10/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4845468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente .</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Gonzalo Cordúa Hoffmann</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2080</v>
+        <v>2000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11/05/2010</t>
+          <t>08/06/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4574095&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4639002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Modificación Central Hidroeléctrica Mariposas .</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Clemente .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Lircay S.A.</t>
+          <t>Gonzalo Cordúa Hoffmann</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>460</v>
+        <v>2080</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>14/04/2010</t>
+          <t>11/05/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4574095&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica La Mina</t>
+          <t>Modificación Central Hidroeléctrica Mariposas .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidroeléctrica Río Lircay S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>74000</v>
+        <v>460</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/04/2010</t>
+          <t>14/04/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4499635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,40 +3208,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Central Hidroeléctrica La Mina</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>74000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>13/04/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4444277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>plan de adecuacion del vertedero de residuos solidos domiciliarios y asimilables san roque a relleno sanitario de residuos solidos domiciliarios y asimilables san roque . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4330315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>plan de adecuacion del vertedero de residuos solidos domiciliarios y asimilables san roque a relleno sanitario de residuos solidos domiciliarios y asimilables san roque . (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,12 +3362,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>sociedad arquitectura y paisajismo rio maule ltda</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>20/01/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4330315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Alfa Transmisora de Energía S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,10 +3544,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Centrales Hidroeléctricas Río Puelche</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>Línea de Transmisión Eléctrica San Clemente-Chiburgo (e-seia)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -3555,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Hydrochile S.A</t>
+          <t>Alfa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>140000</v>
+        <v>990</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/04/2009</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3657332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3744189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3588,14 +3592,10 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta 115-CH, Tramo Puente Lo Aguirre, Límite Paso Pehuenche (e-seia)</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Centrales Hidroeléctricas Río Puelche</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -3603,25 +3603,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Hydrochile S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>30000</v>
+        <v>140000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>09/04/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3657332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Mejoramiento Ruta 115-CH, Tramo Puente Lo Aguirre, Límite Paso Pehuenche (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3646,30 +3646,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3514494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Mariposas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3694,30 +3694,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Río Lircay S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>15300</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>13/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Loteo "Don Eduardo" de San Clemente (e-seia)</t>
+          <t>Central Hidroeléctrica Mariposas (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3747,15 +3747,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Danilo Alberto Parra Loyola</t>
+          <t>Hidroeléctrica Río Lircay S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3600</v>
+        <v>15300</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>26/12/2008</t>
+          <t>13/01/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3480223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Loteo "Don Eduardo" de San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3790,30 +3790,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Danilo Alberto Parra Loyola</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>26/12/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3446202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NUEVA AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3838,30 +3838,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>05/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>NUEVA AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3886,20 +3886,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>05/11/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3320520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3939,25 +3939,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral del Sitema APR El Colorado, Comuna de San Clemente (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3982,30 +3982,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Juan Raul Rojas Vergara</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>426</v>
+        <v>234</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>03/10/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411541&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Mejoramiento Integral del Sitema APR El Colorado, Comuna de San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4030,30 +4030,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Juan Raul Rojas Vergara</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>426</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/10/2007</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2411541&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Línea Transmisión Lircay- Maule 1 x 66 kV (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4078,30 +4078,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Hidromaule S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2650</v>
+        <v>10</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>17/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323991&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Línea Transmisión Lircay- Maule 1 x 66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4126,30 +4126,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Hidromaule S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>300</v>
+        <v>2650</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>17/08/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2323991&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4164,40 +4164,40 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Central Hidroeléctrica Los Cóndores"</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>180000</v>
+        <v>300</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265862&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4212,12 +4212,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica San Clemente (e-seia)</t>
+          <t>"Central Hidroeléctrica Los Cóndores"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4227,15 +4227,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>29/05/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2265862&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Piscicultura El Colorado (e-seia)</t>
+          <t>Central Hidroeléctrica San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4275,15 +4275,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Salmones Colbún Ltda</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1500</v>
+        <v>12000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/05/2007</t>
+          <t>29/05/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133687&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2171317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Piscicultura El Colorado (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4318,30 +4318,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Salmones Colbún Ltda</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>02/05/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133687&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4379,17 +4379,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal San Clemente (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4414,16 +4414,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Juan Raul Rojas Vergara</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4432,12 +4432,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1898043&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Plan Regulador Comunal San Clemente (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4462,20 +4462,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Juan Raul Rojas Vergara</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1898043&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Lircay (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4510,20 +4510,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Hidromaule S.A.</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
+          <t>Central Hidroelectrica Lircay (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4563,15 +4563,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Hidromaule S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>203</v>
+        <v>20000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>12/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1578767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de RILes Viña Casas Patronales S.A. (e-seia)</t>
+          <t>Peralte de Compuertas del Embalse Colbún (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4611,15 +4611,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>03/07/2006</t>
+          <t>12/07/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1563222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento de RILes Viña Casas Patronales S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4654,30 +4654,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>03/07/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1498619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Tratamiento de Riles, Viña Casas Patronales S.A. (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4702,20 +4702,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Nelson Murua Polanco</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1470315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Modificación del Sistema de Tratamiento de Riles, Viña Casas Patronales S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4750,30 +4750,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Nelson Murua Polanco</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4000</v>
+        <v>64</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>08/06/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1470315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de vinos de Viñedos Terranoble Riles Bodega Vinos Terranoble (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4798,30 +4798,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Viñedos Terranoble S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322490&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de vinos de Viñedos Terranoble Riles Bodega Vinos Terranoble (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4846,30 +4846,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Viñedos Terranoble S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4000</v>
+        <v>40</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>07/03/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1322490&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4899,25 +4899,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4947,25 +4947,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5003,17 +5003,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO INTEGRAL APR SAN DIEGO-BELLA UNION (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5038,30 +5038,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>COMITE DE APR SAN DIEGO, BELLA UNION Y SAN LUIS DE ALICO</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>486</v>
+        <v>72</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1149334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Loteo Don Sebastian (e-seia)</t>
+          <t>MEJORAMIENTO INTEGRAL APR SAN DIEGO-BELLA UNION (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5091,25 +5091,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
+          <t>COMITE DE APR SAN DIEGO, BELLA UNION Y SAN LUIS DE ALICO</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4083</v>
+        <v>486</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1119974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1149334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica Ojos de Agua (e-seia)</t>
+          <t>Loteo Don Sebastian (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5139,25 +5139,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>INVERSIONES Y COMERCIAL DON IGNACIO S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>4083</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>31/08/2005</t>
+          <t>23/11/2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1119974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Minicentral Hidroeléctrica Ojos de Agua (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5187,15 +5187,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>31/08/2005</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=994050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5235,15 +5235,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>14/09/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=436459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,7 +5268,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Centro Shalom, Vilches Alto (e-seia)</t>
+          <t>AMPLIACION PLANTEL PRODUCTOR DE HUEVOS SAN FRANCISCO (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5283,15 +5283,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Iglesia Pentecostal de Chile</t>
+          <t>MIGUEL RAFAEL FUENZALIDA FERNANDEZ</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>31/05/2004</t>
+          <t>14/09/2004</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366256&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=436459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Mariposas</t>
+          <t>Centro Shalom, Vilches Alto (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,25 +5331,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Iglesia Pentecostal de Chile</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>860</v>
+        <v>800</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>31/12/2002</t>
+          <t>31/05/2004</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=366256&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Queri</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Mariposas</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>600</v>
+        <v>860</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6137&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Quebrada de Agua</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Queri</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,7 +5431,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6138&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6137&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE SAN CLEMENTE (e-seia)</t>
+          <t>Construcción Soluciones Sanitarias con Planta de Tratamiento sector Quebrada de Agua</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,25 +5475,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>13/11/2002</t>
+          <t>31/12/2002</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6138&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Modificación de Instalaciones Consumo Propio a Venta de Combustible de la empresa Socotrans S.A. San Clemente</t>
+          <t>DISEÑO, SUMINISTRO, INSTALACION Y MONTAJE DE EQUIPOS DE AIREACION EN LAGUNAS DE ESTABILIZACION DE LA LOCALIDAD DE SAN CLEMENTE (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Socieedad Socotrans S.A.</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>21/10/2002</t>
+          <t>13/11/2002</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=33150&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,12 +5556,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
+          <t>Modificación de Instalaciones Consumo Propio a Venta de Combustible de la empresa Socotrans S.A. San Clemente</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Socieedad Socotrans S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>14080</v>
+        <v>40</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>06/09/2002</t>
+          <t>21/10/2002</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Piloto Reserva Nacional Altos de Lircay</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 kv S/E Ancoa S/E Itahue (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5619,15 +5619,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>14080</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>23/08/2002</t>
+          <t>06/09/2002</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,12 +5652,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
+          <t>Sendero de Chile Tramo Piloto Reserva Nacional Altos de Lircay</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>14080</v>
+        <v>30</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>22/08/2002</t>
+          <t>23/08/2002</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,12 +5700,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
+          <t>Línea de Transmisión Eléctrica de 2x220 KV S/E Ancoa - S/E Itahue (Primera Presentación)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1000</v>
+        <v>14080</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>24/06/2002</t>
+          <t>22/08/2002</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Villa Conavicoop - San Clemente</t>
+          <t>Línea de Transmisión Eléctrica y Subestaciones Eléctricas VII Región</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,15 +5763,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>CONAVICOOP</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2260</v>
+        <v>1000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>07/06/2002</t>
+          <t>24/06/2002</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Estación de Servicios Huamachuco</t>
+          <t>Conjunto Habitacional Villa Conavicoop - San Clemente</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,15 +5811,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>CONAVICOOP</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>100</v>
+        <v>2260</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>17/12/2001</t>
+          <t>07/06/2002</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Viña Casas Patronales 2</t>
+          <t>Estación de Servicios Huamachuco</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,15 +5859,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Viña Casas Patronales S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>12/12/2001</t>
+          <t>17/12/2001</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural Los Montes Comuna de San Clemente Provincia de Talca Región del Maule</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Viña Casas Patronales 2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,15 +5907,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Viña Casas Patronales S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>08/03/2001</t>
+          <t>12/12/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Bodega de Vinos Fundo Los Lirios Comuna de San Clemente Provincia de Talca Región del Maule</t>
+          <t>Instalación de Servicio de Agua Potable Rural Los Montes Comuna de San Clemente Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sociedad Fruticola El Aromo Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>20/12/2000</t>
+          <t>08/03/2001</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3462&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Chequen</t>
+          <t>Sistema de Tratamiento de Riles Bodega de Vinos Fundo Los Lirios Comuna de San Clemente Provincia de Talca Región del Maule</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6003,15 +6003,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Sociedad Fruticola El Aromo Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>10/04/2000</t>
+          <t>20/12/2000</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2779&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3462&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ampliación Sistema de Agua Potable Rural Mariposas</t>
+          <t>Ampliación y Mejoramiento Sistema de Agua Potable Rural de Chequen</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,15 +6051,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Mariposas</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>26/01/2000</t>
+          <t>10/04/2000</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2779&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Mejoramiento Integral Servicio de Agua Potable de Vilches Alto</t>
+          <t>Ampliación Sistema de Agua Potable Rural Mariposas</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,15 +6099,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Comité de Agua Potable Rural Mariposas</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>23/11/1999</t>
+          <t>26/01/2000</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de San Manuel</t>
+          <t>Mejoramiento Integral Servicio de Agua Potable de Vilches Alto</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,15 +6147,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>150</v>
+        <v>620</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>22/11/1999</t>
+          <t>23/11/1999</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de Paso Nevado</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de San Manuel</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Diseño Planta de Tratamiento Villa Flor del Llano</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de Paso Nevado</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,15 +6243,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>21/10/1999</t>
+          <t>22/11/1999</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2449&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural Sector San Jorge Norte</t>
+          <t>Diseño Planta de Tratamiento Villa Flor del Llano</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>16/09/1999</t>
+          <t>21/10/1999</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Sector Queri</t>
+          <t>Sistema de Servicio de Agua Potable Rural Sector San Jorge Norte</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,11 +6343,11 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>730</v>
+        <v>100</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>16/09/1999</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Construcción de Viviendas Sociales en San Clemente</t>
+          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Sector Queri</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Audilio Salas Bravo</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>560</v>
+        <v>730</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>26/04/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mejoramiento del Sistema de Alcantarillado Grupo Habitacional Flor del Llano</t>
+          <t>Construcción de Viviendas Sociales en San Clemente</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,25 +6435,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Audilio Salas Bravo</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>11/11/1998</t>
+          <t>26/04/1999</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1543&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Loteo y Construcción de un Grupo Habitacional de 100 Viviendas Sociales</t>
+          <t>Mejoramiento del Sistema de Alcantarillado Grupo Habitacional Flor del Llano</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,25 +6483,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Constructora Cerutti S.A.</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>730</v>
+        <v>50</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>02/11/1998</t>
+          <t>11/11/1998</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1543&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas El Bolsico</t>
+          <t>Loteo y Construcción de un Grupo Habitacional de 100 Viviendas Sociales</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Clemente</t>
+          <t>Constructora Cerutti S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>390</v>
+        <v>730</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/09/1998</t>
+          <t>02/11/1998</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Construcción Infraestructura Turística en Reserva Nacional Alto Lircay</t>
+          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas El Bolsico</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal, CONAF</t>
+          <t>I. Municipalidad de San Clemente</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>05/06/1998</t>
+          <t>30/09/1998</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Mejoramiento Servicios Reserva Nacional Altos de Lircay</t>
+          <t>Construcción Infraestructura Turística en Reserva Nacional Alto Lircay</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,11 +6631,11 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>14/07/1997</t>
+          <t>05/06/1998</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,30 +6660,30 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+          <t>Mejoramiento Servicios Reserva Nacional Altos de Lircay</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Gasoducto del Pacífico S.A.</t>
+          <t>Corporación Nacional Forestal, CONAF</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>850000</v>
+        <v>70</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>31/01/1996</t>
+          <t>14/07/1997</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,43 +6708,91 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Gasoducto del Pacífico S.A.</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>850000</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>31/01/1996</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>San Clemente</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Loma Alta</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Séptima</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Séptima</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
         <is>
           <t>Pehuenche S.A.</t>
         </is>
       </c>
-      <c r="F133" t="n">
+      <c r="F134" t="n">
         <v>60000</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>18/05/1995</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=54&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>San Clemente</t>
         </is>

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -5619,7 +5619,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F112" t="n">

--- a/data/San Clemente.xlsx
+++ b/data/San Clemente.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
